--- a/inputs.xlsx
+++ b/inputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m4oughi\Desktop\a\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DC2BD85-14EE-479E-8CB2-29BD64706F8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{925649F4-2C85-42F5-AE0B-262964B769E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
   <si>
     <t>Modulus of Elasticity</t>
   </si>
@@ -33,19 +33,7 @@
     <t>Poisson's Ratio</t>
   </si>
   <si>
-    <t>Shear's Modulus</t>
-  </si>
-  <si>
-    <t>G</t>
-  </si>
-  <si>
     <t>Dimensions</t>
-  </si>
-  <si>
-    <t>Mode Number</t>
-  </si>
-  <si>
-    <t>m</t>
   </si>
   <si>
     <t>Number of Strips</t>
@@ -69,9 +57,6 @@
     <t>Data</t>
   </si>
   <si>
-    <t>Buckling</t>
-  </si>
-  <si>
     <t>noo</t>
   </si>
   <si>
@@ -93,17 +78,77 @@
     <t>Elastic Foundation</t>
   </si>
   <si>
-    <t>kw</t>
+    <t>2D</t>
   </si>
   <si>
-    <t>ks</t>
+    <t>Quasi-3D</t>
+  </si>
+  <si>
+    <t>Loading</t>
+  </si>
+  <si>
+    <t>Power Law</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>kw_bar</t>
+  </si>
+  <si>
+    <t>ks_bar</t>
+  </si>
+  <si>
+    <t>Plate Theory</t>
+  </si>
+  <si>
+    <t>Boundary Condition</t>
+  </si>
+  <si>
+    <t>SSSS</t>
+  </si>
+  <si>
+    <t>SSSC</t>
+  </si>
+  <si>
+    <t>SCSC</t>
+  </si>
+  <si>
+    <t>SSSF</t>
+  </si>
+  <si>
+    <t>SCSF</t>
+  </si>
+  <si>
+    <t>SFSF</t>
+  </si>
+  <si>
+    <t>Material Propertise</t>
+  </si>
+  <si>
+    <t>Plate Geometry</t>
+  </si>
+  <si>
+    <t>Others</t>
+  </si>
+  <si>
+    <t>2D Connectivity</t>
+  </si>
+  <si>
+    <t>Quasi-3D Connectivity</t>
+  </si>
+  <si>
+    <t>Strips</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -140,8 +185,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -177,8 +234,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -239,6 +302,100 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -247,45 +404,15 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="1" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -300,25 +427,90 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="7" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="7" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="7" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="7" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -357,6 +549,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>minimum 2D</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -453,7 +670,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'1'!$E$4:$E$8</c:f>
+              <c:f>'1'!$J$6:$J$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -477,7 +694,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'1'!$F$4:$F$8</c:f>
+              <c:f>'1'!$K$6:$K$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -507,6 +724,7 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -686,7 +904,1265 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Maximum 2D</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'1'!$J$6:$J$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'1'!$X$6:$X$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>46</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BFED-44B6-91B8-E394EC00D362}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="110628320"/>
+        <c:axId val="110628800"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="110628320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="110628800"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="110628800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="110628320"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>minimum</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Quasi-3D</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'1'!$J$24:$J$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'1'!$K$24:$K$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-77E7-4FB5-AF0A-A2452FF6D576}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="260889344"/>
+        <c:axId val="104259712"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="260889344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="104259712"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="104259712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="260889344"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Maximum</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Quasi-3D</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'1'!$J$24:$J$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'1'!$AB$24:$AB$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>58</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-36A9-4C0E-998D-C34FB7DCC4B1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="110630240"/>
+        <c:axId val="2142700752"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="110630240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2142700752"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2142700752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="110630240"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1242,13 +2718,1561 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>167640</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>83820</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="65" cy="162224"/>
@@ -1301,16 +4325,16 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>259080</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>53340</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1330,6 +4354,114 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>373380</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0B18E01-C101-14D2-4210-053F448E622E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3ABA1FF9-AC07-0F62-8837-463B8A2A5368}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>373380</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DACFD8EE-9681-14D4-7C54-F37C18C8FEE3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1601,455 +4733,976 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S20"/>
+  <dimension ref="A1:AB28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25.33203125" customWidth="1"/>
-    <col min="2" max="2" width="16.44140625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" style="2" customWidth="1"/>
     <col min="3" max="3" width="26" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" customWidth="1"/>
-    <col min="6" max="6" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28" style="18" customWidth="1"/>
+    <col min="6" max="9" width="10.109375" style="18" customWidth="1"/>
+    <col min="10" max="10" width="10.33203125" customWidth="1"/>
+    <col min="11" max="11" width="10.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="8" t="s">
+    <row r="1" spans="1:24" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="29"/>
+      <c r="B1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="28"/>
+      <c r="E1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+    </row>
+    <row r="2" spans="1:24" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="21">
+        <v>0</v>
+      </c>
+      <c r="C2" s="21">
+        <v>1</v>
+      </c>
+      <c r="D2" s="28"/>
+      <c r="E2" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="21">
+        <v>1</v>
+      </c>
+      <c r="G2" s="28"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+    </row>
+    <row r="3" spans="1:24" ht="18" x14ac:dyDescent="0.3">
+      <c r="A3" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="31"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="21">
+        <v>0</v>
+      </c>
+      <c r="G3" s="28"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+    </row>
+    <row r="4" spans="1:24" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="28"/>
+      <c r="E4" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="21">
+        <v>0</v>
+      </c>
+      <c r="G4" s="28"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="K4" s="33"/>
+      <c r="L4" s="33"/>
+      <c r="M4" s="33"/>
+      <c r="N4" s="33"/>
+      <c r="O4" s="33"/>
+      <c r="P4" s="33"/>
+      <c r="Q4" s="33"/>
+      <c r="R4" s="33"/>
+      <c r="S4" s="33"/>
+      <c r="T4" s="33"/>
+      <c r="U4" s="33"/>
+      <c r="V4" s="33"/>
+      <c r="W4" s="33"/>
+      <c r="X4" s="33"/>
+    </row>
+    <row r="5" spans="1:24" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="21">
+        <v>0</v>
+      </c>
+      <c r="D5" s="28"/>
+      <c r="E5" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="21">
+        <v>0</v>
+      </c>
+      <c r="G5" s="28"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="5">
+        <v>1</v>
+      </c>
+      <c r="L5" s="5">
+        <v>2</v>
+      </c>
+      <c r="M5" s="5">
+        <v>3</v>
+      </c>
+      <c r="N5" s="5">
+        <v>4</v>
+      </c>
+      <c r="O5" s="5">
+        <v>5</v>
+      </c>
+      <c r="P5" s="5">
+        <v>6</v>
+      </c>
+      <c r="Q5" s="8">
+        <v>7</v>
+      </c>
+      <c r="R5" s="8">
+        <v>8</v>
+      </c>
+      <c r="S5" s="5">
+        <v>9</v>
+      </c>
+      <c r="T5" s="5">
+        <v>10</v>
+      </c>
+      <c r="U5" s="5">
+        <v>11</v>
+      </c>
+      <c r="V5" s="5">
         <v>12</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="W5" s="5">
         <v>13</v>
       </c>
+      <c r="X5" s="5">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="1:19" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="19" t="s">
+    <row r="6" spans="1:24" ht="18" x14ac:dyDescent="0.3">
+      <c r="A6" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B6" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="22">
+        <v>70</v>
+      </c>
+      <c r="D6" s="28"/>
+      <c r="E6" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="21">
+        <v>0</v>
+      </c>
+      <c r="G6" s="28"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="J6" s="6">
+        <v>1</v>
+      </c>
+      <c r="K6" s="1">
+        <v>1</v>
+      </c>
+      <c r="L6" s="1">
+        <v>2</v>
+      </c>
+      <c r="M6" s="1">
+        <v>3</v>
+      </c>
+      <c r="N6" s="1">
+        <v>4</v>
+      </c>
+      <c r="O6" s="1">
+        <v>5</v>
+      </c>
+      <c r="P6" s="1">
+        <v>6</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>7</v>
+      </c>
+      <c r="R6" s="1">
+        <v>8</v>
+      </c>
+      <c r="S6" s="1">
+        <v>9</v>
+      </c>
+      <c r="T6" s="1">
+        <v>10</v>
+      </c>
+      <c r="U6" s="1">
+        <v>11</v>
+      </c>
+      <c r="V6" s="1">
+        <v>12</v>
+      </c>
+      <c r="W6" s="1">
+        <v>13</v>
+      </c>
+      <c r="X6" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" ht="18" x14ac:dyDescent="0.3">
+      <c r="A7" s="14"/>
+      <c r="B7" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="22">
+        <v>70</v>
+      </c>
+      <c r="D7" s="28"/>
+      <c r="E7" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="21">
+        <v>0</v>
+      </c>
+      <c r="G7" s="28"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="7">
+        <v>2</v>
+      </c>
+      <c r="K7" s="1">
+        <v>9</v>
+      </c>
+      <c r="L7" s="1">
+        <v>10</v>
+      </c>
+      <c r="M7" s="1">
+        <v>11</v>
+      </c>
+      <c r="N7" s="1">
+        <v>12</v>
+      </c>
+      <c r="O7" s="1">
+        <v>13</v>
+      </c>
+      <c r="P7" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>15</v>
+      </c>
+      <c r="R7" s="1">
+        <v>16</v>
+      </c>
+      <c r="S7" s="1">
+        <v>17</v>
+      </c>
+      <c r="T7" s="1">
+        <v>18</v>
+      </c>
+      <c r="U7" s="1">
         <v>19</v>
       </c>
-      <c r="C2" s="6">
-        <v>70</v>
+      <c r="V7" s="1">
+        <v>20</v>
+      </c>
+      <c r="W7" s="1">
+        <v>21</v>
+      </c>
+      <c r="X7" s="1">
+        <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="18" x14ac:dyDescent="0.3">
-      <c r="A3" s="20"/>
-      <c r="B3" s="5" t="s">
+    <row r="8" spans="1:24" ht="18" x14ac:dyDescent="0.3">
+      <c r="A8" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="26">
+        <v>0.3</v>
+      </c>
+      <c r="D8" s="28"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="25"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="7">
+        <v>3</v>
+      </c>
+      <c r="K8" s="1">
+        <v>17</v>
+      </c>
+      <c r="L8" s="1">
+        <v>18</v>
+      </c>
+      <c r="M8" s="1">
+        <v>19</v>
+      </c>
+      <c r="N8" s="1">
         <v>20</v>
       </c>
-      <c r="C3" s="6">
-        <v>70</v>
-      </c>
-      <c r="E3" s="14"/>
-      <c r="F3" s="15">
+      <c r="O8" s="1">
+        <v>21</v>
+      </c>
+      <c r="P8" s="1">
+        <v>22</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>23</v>
+      </c>
+      <c r="R8" s="1">
+        <v>24</v>
+      </c>
+      <c r="S8" s="1">
+        <v>25</v>
+      </c>
+      <c r="T8" s="1">
+        <v>26</v>
+      </c>
+      <c r="U8" s="1">
+        <v>27</v>
+      </c>
+      <c r="V8" s="1">
+        <v>28</v>
+      </c>
+      <c r="W8" s="1">
+        <v>29</v>
+      </c>
+      <c r="X8" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" ht="18" x14ac:dyDescent="0.3">
+      <c r="A9" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="31"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="28"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="7">
+        <v>4</v>
+      </c>
+      <c r="K9" s="1">
+        <v>25</v>
+      </c>
+      <c r="L9" s="1">
+        <v>26</v>
+      </c>
+      <c r="M9" s="1">
+        <v>27</v>
+      </c>
+      <c r="N9" s="1">
+        <v>28</v>
+      </c>
+      <c r="O9" s="1">
+        <v>29</v>
+      </c>
+      <c r="P9" s="1">
+        <v>30</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>31</v>
+      </c>
+      <c r="R9" s="1">
+        <v>32</v>
+      </c>
+      <c r="S9" s="1">
+        <v>33</v>
+      </c>
+      <c r="T9" s="1">
+        <v>34</v>
+      </c>
+      <c r="U9" s="1">
+        <v>35</v>
+      </c>
+      <c r="V9" s="1">
+        <v>36</v>
+      </c>
+      <c r="W9" s="1">
+        <v>37</v>
+      </c>
+      <c r="X9" s="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" ht="18" x14ac:dyDescent="0.3">
+      <c r="A10" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="27">
         <v>1</v>
       </c>
-      <c r="G3" s="15">
+      <c r="D10" s="28"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="7">
+        <v>5</v>
+      </c>
+      <c r="K10" s="1">
+        <v>33</v>
+      </c>
+      <c r="L10" s="1">
+        <v>34</v>
+      </c>
+      <c r="M10" s="1">
+        <v>35</v>
+      </c>
+      <c r="N10" s="1">
+        <v>36</v>
+      </c>
+      <c r="O10" s="1">
+        <v>37</v>
+      </c>
+      <c r="P10" s="1">
+        <v>38</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>39</v>
+      </c>
+      <c r="R10" s="1">
+        <v>40</v>
+      </c>
+      <c r="S10" s="1">
+        <v>41</v>
+      </c>
+      <c r="T10" s="1">
+        <v>42</v>
+      </c>
+      <c r="U10" s="1">
+        <v>43</v>
+      </c>
+      <c r="V10" s="1">
+        <v>44</v>
+      </c>
+      <c r="W10" s="1">
+        <v>45</v>
+      </c>
+      <c r="X10" s="1">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" ht="18" x14ac:dyDescent="0.3">
+      <c r="A11" s="11"/>
+      <c r="B11" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="27">
+        <v>1</v>
+      </c>
+      <c r="D11" s="28"/>
+    </row>
+    <row r="12" spans="1:24" ht="18" x14ac:dyDescent="0.3">
+      <c r="A12" s="15"/>
+      <c r="B12" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="27">
+        <v>1E-3</v>
+      </c>
+      <c r="D12" s="28"/>
+    </row>
+    <row r="13" spans="1:24" ht="18" x14ac:dyDescent="0.3">
+      <c r="A13" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="31"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="28"/>
+    </row>
+    <row r="14" spans="1:24" ht="18" x14ac:dyDescent="0.3">
+      <c r="A14" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="21">
+        <v>10</v>
+      </c>
+      <c r="D14" s="28"/>
+    </row>
+    <row r="15" spans="1:24" ht="18" x14ac:dyDescent="0.3">
+      <c r="A15" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="22">
+        <v>0</v>
+      </c>
+      <c r="D15" s="28"/>
+    </row>
+    <row r="16" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="13"/>
+      <c r="B16" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="22">
+        <v>1</v>
+      </c>
+      <c r="D16" s="28"/>
+    </row>
+    <row r="17" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="14"/>
+      <c r="B17" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="22">
+        <v>0</v>
+      </c>
+      <c r="D17" s="28"/>
+    </row>
+    <row r="18" spans="1:28" ht="18" x14ac:dyDescent="0.3">
+      <c r="A18" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="26">
+        <v>0</v>
+      </c>
+      <c r="D18" s="28"/>
+    </row>
+    <row r="19" spans="1:28" ht="18" x14ac:dyDescent="0.3">
+      <c r="A19" s="11"/>
+      <c r="B19" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="26">
+        <v>0</v>
+      </c>
+      <c r="D19" s="28"/>
+    </row>
+    <row r="20" spans="1:28" ht="18" x14ac:dyDescent="0.3">
+      <c r="A20" s="28"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="K21" s="18"/>
+    </row>
+    <row r="22" spans="1:28" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K22" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="L22" s="35"/>
+      <c r="M22" s="35"/>
+      <c r="N22" s="35"/>
+      <c r="O22" s="35"/>
+      <c r="P22" s="35"/>
+      <c r="Q22" s="35"/>
+      <c r="R22" s="35"/>
+      <c r="S22" s="35"/>
+      <c r="T22" s="35"/>
+      <c r="U22" s="35"/>
+      <c r="V22" s="35"/>
+      <c r="W22" s="35"/>
+      <c r="X22" s="35"/>
+      <c r="Y22" s="35"/>
+      <c r="Z22" s="35"/>
+      <c r="AA22" s="35"/>
+      <c r="AB22" s="35"/>
+    </row>
+    <row r="23" spans="1:28" ht="21.6" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="K23" s="5">
+        <v>1</v>
+      </c>
+      <c r="L23" s="5">
         <v>2</v>
       </c>
-      <c r="H3" s="15">
+      <c r="M23" s="5">
         <v>3</v>
       </c>
-      <c r="I3" s="15">
+      <c r="N23" s="5">
         <v>4</v>
       </c>
-      <c r="J3" s="15">
+      <c r="O23" s="5">
         <v>5</v>
       </c>
-      <c r="K3" s="15">
+      <c r="P23" s="5">
         <v>6</v>
       </c>
-      <c r="L3" s="21">
+      <c r="Q23" s="5">
         <v>7</v>
       </c>
-      <c r="M3" s="21">
+      <c r="R23" s="5">
         <v>8</v>
       </c>
-      <c r="N3" s="15">
+      <c r="S23" s="8">
         <v>9</v>
       </c>
-      <c r="O3" s="15">
+      <c r="T23" s="8">
         <v>10</v>
       </c>
-      <c r="P3" s="15">
+      <c r="U23" s="5">
         <v>11</v>
       </c>
-      <c r="Q3" s="15">
+      <c r="V23" s="5">
         <v>12</v>
       </c>
-      <c r="R3" s="15">
+      <c r="W23" s="5">
         <v>13</v>
       </c>
-      <c r="S3" s="15">
+      <c r="X23" s="5">
         <v>14</v>
       </c>
+      <c r="Y23" s="5">
+        <v>15</v>
+      </c>
+      <c r="Z23" s="5">
+        <v>16</v>
+      </c>
+      <c r="AA23" s="5">
+        <v>17</v>
+      </c>
+      <c r="AB23" s="5">
+        <v>18</v>
+      </c>
     </row>
-    <row r="4" spans="1:19" ht="18" x14ac:dyDescent="0.3">
-      <c r="A4" s="13" t="s">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="I24" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="J24" s="6">
         <v>1</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="K24" s="1">
+        <v>1</v>
+      </c>
+      <c r="L24" s="1">
+        <v>2</v>
+      </c>
+      <c r="M24" s="1">
+        <v>3</v>
+      </c>
+      <c r="N24" s="1">
+        <v>4</v>
+      </c>
+      <c r="O24" s="1">
+        <v>5</v>
+      </c>
+      <c r="P24" s="1">
+        <v>6</v>
+      </c>
+      <c r="Q24" s="1">
+        <v>7</v>
+      </c>
+      <c r="R24" s="1">
+        <v>8</v>
+      </c>
+      <c r="S24" s="1">
+        <v>9</v>
+      </c>
+      <c r="T24" s="1">
+        <v>10</v>
+      </c>
+      <c r="U24" s="1">
+        <v>11</v>
+      </c>
+      <c r="V24" s="1">
+        <v>12</v>
+      </c>
+      <c r="W24" s="1">
+        <v>13</v>
+      </c>
+      <c r="X24" s="1">
+        <v>14</v>
+      </c>
+      <c r="Y24" s="1">
         <v>15</v>
       </c>
-      <c r="C4" s="12">
-        <v>0.3</v>
-      </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="16">
-        <v>1</v>
-      </c>
-      <c r="F4" s="1">
-        <v>1</v>
-      </c>
-      <c r="G4" s="1">
+      <c r="Z24" s="1">
+        <v>16</v>
+      </c>
+      <c r="AA24" s="1">
+        <v>17</v>
+      </c>
+      <c r="AB24" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="I25" s="37"/>
+      <c r="J25" s="7">
         <v>2</v>
       </c>
-      <c r="H4" s="1">
+      <c r="K25" s="1">
+        <v>11</v>
+      </c>
+      <c r="L25" s="1">
+        <v>12</v>
+      </c>
+      <c r="M25" s="1">
+        <v>13</v>
+      </c>
+      <c r="N25" s="1">
+        <v>14</v>
+      </c>
+      <c r="O25" s="1">
+        <v>15</v>
+      </c>
+      <c r="P25" s="1">
+        <v>16</v>
+      </c>
+      <c r="Q25" s="1">
+        <v>17</v>
+      </c>
+      <c r="R25" s="1">
+        <v>18</v>
+      </c>
+      <c r="S25" s="1">
+        <v>19</v>
+      </c>
+      <c r="T25" s="1">
+        <v>20</v>
+      </c>
+      <c r="U25" s="1">
+        <v>21</v>
+      </c>
+      <c r="V25" s="1">
+        <v>22</v>
+      </c>
+      <c r="W25" s="1">
+        <v>23</v>
+      </c>
+      <c r="X25" s="1">
+        <v>24</v>
+      </c>
+      <c r="Y25" s="1">
+        <v>25</v>
+      </c>
+      <c r="Z25" s="1">
+        <v>26</v>
+      </c>
+      <c r="AA25" s="1">
+        <v>27</v>
+      </c>
+      <c r="AB25" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="I26" s="37"/>
+      <c r="J26" s="7">
         <v>3</v>
       </c>
-      <c r="I4" s="1">
+      <c r="K26" s="1">
+        <v>21</v>
+      </c>
+      <c r="L26" s="1">
+        <v>22</v>
+      </c>
+      <c r="M26" s="1">
+        <v>23</v>
+      </c>
+      <c r="N26" s="1">
+        <v>24</v>
+      </c>
+      <c r="O26" s="1">
+        <v>25</v>
+      </c>
+      <c r="P26" s="1">
+        <v>26</v>
+      </c>
+      <c r="Q26" s="1">
+        <v>27</v>
+      </c>
+      <c r="R26" s="1">
+        <v>28</v>
+      </c>
+      <c r="S26" s="1">
+        <v>29</v>
+      </c>
+      <c r="T26" s="1">
+        <v>30</v>
+      </c>
+      <c r="U26" s="1">
+        <v>31</v>
+      </c>
+      <c r="V26" s="1">
+        <v>32</v>
+      </c>
+      <c r="W26" s="1">
+        <v>33</v>
+      </c>
+      <c r="X26" s="1">
+        <v>34</v>
+      </c>
+      <c r="Y26" s="1">
+        <v>35</v>
+      </c>
+      <c r="Z26" s="1">
+        <v>36</v>
+      </c>
+      <c r="AA26" s="1">
+        <v>37</v>
+      </c>
+      <c r="AB26" s="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="I27" s="37"/>
+      <c r="J27" s="7">
         <v>4</v>
       </c>
-      <c r="J4" s="1">
+      <c r="K27" s="1">
+        <v>31</v>
+      </c>
+      <c r="L27" s="1">
+        <v>32</v>
+      </c>
+      <c r="M27" s="1">
+        <v>33</v>
+      </c>
+      <c r="N27" s="1">
+        <v>34</v>
+      </c>
+      <c r="O27" s="1">
+        <v>35</v>
+      </c>
+      <c r="P27" s="1">
+        <v>36</v>
+      </c>
+      <c r="Q27" s="1">
+        <v>37</v>
+      </c>
+      <c r="R27" s="1">
+        <v>38</v>
+      </c>
+      <c r="S27" s="1">
+        <v>39</v>
+      </c>
+      <c r="T27" s="1">
+        <v>40</v>
+      </c>
+      <c r="U27" s="1">
+        <v>41</v>
+      </c>
+      <c r="V27" s="1">
+        <v>42</v>
+      </c>
+      <c r="W27" s="1">
+        <v>43</v>
+      </c>
+      <c r="X27" s="1">
+        <v>44</v>
+      </c>
+      <c r="Y27" s="1">
+        <v>45</v>
+      </c>
+      <c r="Z27" s="1">
+        <v>46</v>
+      </c>
+      <c r="AA27" s="1">
+        <v>47</v>
+      </c>
+      <c r="AB27" s="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="I28" s="37"/>
+      <c r="J28" s="7">
         <v>5</v>
       </c>
-      <c r="K4" s="1">
-        <v>6</v>
-      </c>
-      <c r="L4" s="1">
-        <v>7</v>
-      </c>
-      <c r="M4" s="1">
-        <v>8</v>
-      </c>
-      <c r="N4" s="1">
-        <v>9</v>
-      </c>
-      <c r="O4" s="1">
-        <v>10</v>
-      </c>
-      <c r="P4" s="1">
-        <v>11</v>
-      </c>
-      <c r="Q4" s="1">
-        <v>12</v>
-      </c>
-      <c r="R4" s="1">
-        <v>13</v>
-      </c>
-      <c r="S4" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" ht="18" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="6">
-        <v>770000</v>
-      </c>
-      <c r="E5" s="17">
-        <v>2</v>
-      </c>
-      <c r="F5" s="1">
-        <v>9</v>
-      </c>
-      <c r="G5" s="1">
-        <v>10</v>
-      </c>
-      <c r="H5" s="1">
-        <v>11</v>
-      </c>
-      <c r="I5" s="1">
-        <v>12</v>
-      </c>
-      <c r="J5" s="1">
-        <v>13</v>
-      </c>
-      <c r="K5" s="1">
-        <v>14</v>
-      </c>
-      <c r="L5" s="1">
-        <v>15</v>
-      </c>
-      <c r="M5" s="1">
-        <v>16</v>
-      </c>
-      <c r="N5" s="1">
-        <v>17</v>
-      </c>
-      <c r="O5" s="1">
-        <v>18</v>
-      </c>
-      <c r="P5" s="1">
-        <v>19</v>
-      </c>
-      <c r="Q5" s="1">
-        <v>20</v>
-      </c>
-      <c r="R5" s="1">
-        <v>21</v>
-      </c>
-      <c r="S5" s="1">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" ht="18" x14ac:dyDescent="0.3">
-      <c r="A6" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="11">
-        <v>1</v>
-      </c>
-      <c r="E6" s="17">
-        <v>3</v>
-      </c>
-      <c r="F6" s="1">
-        <v>17</v>
-      </c>
-      <c r="G6" s="1">
-        <v>18</v>
-      </c>
-      <c r="H6" s="1">
-        <v>19</v>
-      </c>
-      <c r="I6" s="1">
-        <v>20</v>
-      </c>
-      <c r="J6" s="1">
-        <v>21</v>
-      </c>
-      <c r="K6" s="1">
-        <v>22</v>
-      </c>
-      <c r="L6" s="1">
-        <v>23</v>
-      </c>
-      <c r="M6" s="1">
-        <v>24</v>
-      </c>
-      <c r="N6" s="1">
-        <v>25</v>
-      </c>
-      <c r="O6" s="1">
-        <v>26</v>
-      </c>
-      <c r="P6" s="1">
-        <v>27</v>
-      </c>
-      <c r="Q6" s="1">
-        <v>28</v>
-      </c>
-      <c r="R6" s="1">
-        <v>29</v>
-      </c>
-      <c r="S6" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" ht="18" x14ac:dyDescent="0.3">
-      <c r="A7" s="22"/>
-      <c r="B7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="11">
-        <v>1</v>
-      </c>
-      <c r="E7" s="17">
-        <v>4</v>
-      </c>
-      <c r="F7" s="1">
-        <v>25</v>
-      </c>
-      <c r="G7" s="1">
-        <v>26</v>
-      </c>
-      <c r="H7" s="1">
-        <v>27</v>
-      </c>
-      <c r="I7" s="1">
-        <v>28</v>
-      </c>
-      <c r="J7" s="1">
-        <v>29</v>
-      </c>
-      <c r="K7" s="1">
-        <v>30</v>
-      </c>
-      <c r="L7" s="1">
-        <v>31</v>
-      </c>
-      <c r="M7" s="1">
-        <v>32</v>
-      </c>
-      <c r="N7" s="1">
-        <v>33</v>
-      </c>
-      <c r="O7" s="1">
-        <v>34</v>
-      </c>
-      <c r="P7" s="1">
-        <v>35</v>
-      </c>
-      <c r="Q7" s="1">
-        <v>36</v>
-      </c>
-      <c r="R7" s="1">
-        <v>37</v>
-      </c>
-      <c r="S7" s="1">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" ht="18" x14ac:dyDescent="0.3">
-      <c r="A8" s="22"/>
-      <c r="B8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="11">
-        <v>1E-3</v>
-      </c>
-      <c r="E8" s="17">
-        <v>5</v>
-      </c>
-      <c r="F8" s="1">
-        <v>33</v>
-      </c>
-      <c r="G8" s="1">
-        <v>34</v>
-      </c>
-      <c r="H8" s="1">
-        <v>35</v>
-      </c>
-      <c r="I8" s="1">
-        <v>36</v>
-      </c>
-      <c r="J8" s="1">
-        <v>37</v>
-      </c>
-      <c r="K8" s="1">
-        <v>38</v>
-      </c>
-      <c r="L8" s="1">
-        <v>39</v>
-      </c>
-      <c r="M8" s="1">
-        <v>40</v>
-      </c>
-      <c r="N8" s="1">
+      <c r="K28" s="1">
         <v>41</v>
       </c>
-      <c r="O8" s="1">
+      <c r="L28" s="1">
         <v>42</v>
       </c>
-      <c r="P8" s="1">
+      <c r="M28" s="1">
         <v>43</v>
       </c>
-      <c r="Q8" s="1">
+      <c r="N28" s="1">
         <v>44</v>
       </c>
-      <c r="R8" s="1">
+      <c r="O28" s="1">
         <v>45</v>
       </c>
-      <c r="S8" s="1">
+      <c r="P28" s="1">
         <v>46</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A11" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A12" s="23"/>
-      <c r="B12" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A13" s="23"/>
-      <c r="B13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="10">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="22"/>
-      <c r="B15" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F19" s="6">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="20" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F20" s="6">
-        <v>70</v>
+      <c r="Q28" s="1">
+        <v>47</v>
+      </c>
+      <c r="R28" s="1">
+        <v>48</v>
+      </c>
+      <c r="S28" s="1">
+        <v>49</v>
+      </c>
+      <c r="T28" s="1">
+        <v>50</v>
+      </c>
+      <c r="U28" s="1">
+        <v>51</v>
+      </c>
+      <c r="V28" s="1">
+        <v>52</v>
+      </c>
+      <c r="W28" s="1">
+        <v>53</v>
+      </c>
+      <c r="X28" s="1">
+        <v>54</v>
+      </c>
+      <c r="Y28" s="1">
+        <v>55</v>
+      </c>
+      <c r="Z28" s="1">
+        <v>56</v>
+      </c>
+      <c r="AA28" s="1">
+        <v>57</v>
+      </c>
+      <c r="AB28" s="1">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A14:A15"/>
+  <mergeCells count="11">
+    <mergeCell ref="I6:I10"/>
+    <mergeCell ref="I24:I28"/>
+    <mergeCell ref="J4:X4"/>
+    <mergeCell ref="K22:AB22"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A3:C3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/inputs.xlsx
+++ b/inputs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m4oughi\Desktop\a\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{925649F4-2C85-42F5-AE0B-262964B769E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61302C05-D62F-4E5E-B878-2BC5EBAEA0C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -52,9 +52,6 @@
   </si>
   <si>
     <t>Symbol</t>
-  </si>
-  <si>
-    <t>Data</t>
   </si>
   <si>
     <t>noo</t>
@@ -140,15 +137,15 @@
   <si>
     <t>Strips</t>
   </si>
+  <si>
+    <t>Introduction</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0"/>
-  </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -197,6 +194,20 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -241,7 +252,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -340,15 +351,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -404,7 +406,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -430,30 +432,6 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="2" applyFont="1" applyAlignment="1">
@@ -471,46 +449,86 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="5" fillId="7" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="7" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="7" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="7" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="5" fillId="3" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="5" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="7" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="7" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="7" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="7" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="7" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="7" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -724,7 +742,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -4736,128 +4753,130 @@
   <dimension ref="A1:AB28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25.33203125" customWidth="1"/>
     <col min="2" max="2" width="16.44140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="26" style="1" customWidth="1"/>
-    <col min="5" max="5" width="28" style="18" customWidth="1"/>
-    <col min="6" max="9" width="10.109375" style="18" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.6640625" customWidth="1"/>
+    <col min="5" max="5" width="28" style="10" customWidth="1"/>
+    <col min="6" max="9" width="10.109375" style="10" customWidth="1"/>
     <col min="10" max="10" width="10.33203125" customWidth="1"/>
     <col min="11" max="11" width="10.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="29"/>
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:24" ht="19.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="40"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="28"/>
-      <c r="E1" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
+      <c r="E1" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="32"/>
+      <c r="G1" s="9"/>
     </row>
     <row r="2" spans="1:24" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="21">
+      <c r="A2" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="43"/>
+      <c r="C2" s="24">
+        <v>1</v>
+      </c>
+      <c r="D2" s="24">
         <v>0</v>
       </c>
-      <c r="C2" s="21">
+      <c r="E2" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="24">
         <v>1</v>
       </c>
-      <c r="D2" s="28"/>
-      <c r="E2" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F2" s="21">
-        <v>1</v>
-      </c>
-      <c r="G2" s="28"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
     </row>
     <row r="3" spans="1:24" ht="18" x14ac:dyDescent="0.3">
-      <c r="A3" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" s="21">
+      <c r="A3" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="35"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="24">
         <v>0</v>
       </c>
-      <c r="G3" s="28"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
     </row>
     <row r="4" spans="1:24" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="18" t="s">
+        <v>37</v>
+      </c>
       <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="28"/>
-      <c r="E4" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" s="21">
+      <c r="C4" s="3"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="24">
         <v>0</v>
       </c>
-      <c r="G4" s="28"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="K4" s="33"/>
-      <c r="L4" s="33"/>
-      <c r="M4" s="33"/>
-      <c r="N4" s="33"/>
-      <c r="O4" s="33"/>
-      <c r="P4" s="33"/>
-      <c r="Q4" s="33"/>
-      <c r="R4" s="33"/>
-      <c r="S4" s="33"/>
-      <c r="T4" s="33"/>
-      <c r="U4" s="33"/>
-      <c r="V4" s="33"/>
-      <c r="W4" s="33"/>
-      <c r="X4" s="33"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="22"/>
+      <c r="S4" s="22"/>
+      <c r="T4" s="22"/>
+      <c r="U4" s="22"/>
+      <c r="V4" s="22"/>
+      <c r="W4" s="22"/>
+      <c r="X4" s="22"/>
     </row>
     <row r="5" spans="1:24" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="21">
+      <c r="C5" s="24">
         <v>0</v>
       </c>
-      <c r="D5" s="28"/>
-      <c r="E5" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="21">
+      <c r="D5" s="17"/>
+      <c r="E5" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="24">
         <v>0</v>
       </c>
-      <c r="G5" s="28"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
       <c r="J5" s="4"/>
       <c r="K5" s="5">
         <v>1</v>
@@ -4903,26 +4922,26 @@
       </c>
     </row>
     <row r="6" spans="1:24" ht="18" x14ac:dyDescent="0.3">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="22">
+      <c r="B6" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="14">
         <v>70</v>
       </c>
-      <c r="D6" s="28"/>
-      <c r="E6" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="21">
+      <c r="D6" s="17"/>
+      <c r="E6" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="24">
         <v>0</v>
       </c>
-      <c r="G6" s="28"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="36" t="s">
-        <v>37</v>
+      <c r="G6" s="17"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="19" t="s">
+        <v>36</v>
       </c>
       <c r="J6" s="6">
         <v>1</v>
@@ -4971,23 +4990,23 @@
       </c>
     </row>
     <row r="7" spans="1:24" ht="18" x14ac:dyDescent="0.3">
-      <c r="A7" s="14"/>
-      <c r="B7" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="22">
+      <c r="A7" s="30"/>
+      <c r="B7" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="14">
         <v>70</v>
       </c>
-      <c r="D7" s="28"/>
-      <c r="E7" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" s="21">
+      <c r="D7" s="17"/>
+      <c r="E7" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="24">
         <v>0</v>
       </c>
-      <c r="G7" s="28"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="37"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="20"/>
       <c r="J7" s="7">
         <v>2</v>
       </c>
@@ -5035,20 +5054,20 @@
       </c>
     </row>
     <row r="8" spans="1:24" ht="18" x14ac:dyDescent="0.3">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="26">
+      <c r="B8" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="24">
         <v>0.3</v>
       </c>
-      <c r="D8" s="28"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="25"/>
-      <c r="I8" s="37"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="16"/>
+      <c r="I8" s="20"/>
       <c r="J8" s="7">
         <v>3</v>
       </c>
@@ -5096,13 +5115,13 @@
       </c>
     </row>
     <row r="9" spans="1:24" ht="18" x14ac:dyDescent="0.3">
-      <c r="A9" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9" s="31"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="28"/>
-      <c r="I9" s="37"/>
+      <c r="A9" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="35"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="17"/>
+      <c r="I9" s="20"/>
       <c r="J9" s="7">
         <v>4</v>
       </c>
@@ -5150,17 +5169,17 @@
       </c>
     </row>
     <row r="10" spans="1:24" ht="18" x14ac:dyDescent="0.3">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="27">
+      <c r="B10" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="24">
         <v>1</v>
       </c>
-      <c r="D10" s="28"/>
-      <c r="I10" s="37"/>
+      <c r="D10" s="17"/>
+      <c r="I10" s="20"/>
       <c r="J10" s="7">
         <v>5</v>
       </c>
@@ -5208,129 +5227,129 @@
       </c>
     </row>
     <row r="11" spans="1:24" ht="18" x14ac:dyDescent="0.3">
-      <c r="A11" s="11"/>
-      <c r="B11" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="27">
+      <c r="A11" s="26"/>
+      <c r="B11" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="24">
         <v>1</v>
       </c>
-      <c r="D11" s="28"/>
+      <c r="D11" s="17"/>
     </row>
     <row r="12" spans="1:24" ht="18" x14ac:dyDescent="0.3">
-      <c r="A12" s="15"/>
-      <c r="B12" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="27">
+      <c r="A12" s="28"/>
+      <c r="B12" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="24">
         <v>1E-3</v>
       </c>
-      <c r="D12" s="28"/>
+      <c r="D12" s="17"/>
     </row>
     <row r="13" spans="1:24" ht="18" x14ac:dyDescent="0.3">
-      <c r="A13" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="B13" s="31"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="28"/>
+      <c r="A13" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="35"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="17"/>
     </row>
     <row r="14" spans="1:24" ht="18" x14ac:dyDescent="0.3">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="21">
+      <c r="C14" s="24">
         <v>10</v>
       </c>
-      <c r="D14" s="28"/>
+      <c r="D14" s="17"/>
     </row>
     <row r="15" spans="1:24" ht="18" x14ac:dyDescent="0.3">
-      <c r="A15" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="19" t="s">
+      <c r="A15" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="22">
+      <c r="C15" s="14">
         <v>0</v>
       </c>
-      <c r="D15" s="28"/>
+      <c r="D15" s="17"/>
     </row>
     <row r="16" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="13"/>
-      <c r="B16" s="19" t="s">
+      <c r="A16" s="31"/>
+      <c r="B16" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="22">
+      <c r="C16" s="14">
         <v>1</v>
       </c>
-      <c r="D16" s="28"/>
+      <c r="D16" s="17"/>
     </row>
     <row r="17" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="14"/>
-      <c r="B17" s="19" t="s">
+      <c r="A17" s="30"/>
+      <c r="B17" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="22">
+      <c r="C17" s="14">
         <v>0</v>
       </c>
-      <c r="D17" s="28"/>
+      <c r="D17" s="17"/>
     </row>
     <row r="18" spans="1:28" ht="18" x14ac:dyDescent="0.3">
-      <c r="A18" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" s="26">
+      <c r="A18" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="24">
         <v>0</v>
       </c>
-      <c r="D18" s="28"/>
+      <c r="D18" s="17"/>
     </row>
     <row r="19" spans="1:28" ht="18" x14ac:dyDescent="0.3">
-      <c r="A19" s="11"/>
-      <c r="B19" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" s="26">
+      <c r="A19" s="28"/>
+      <c r="B19" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="24">
         <v>0</v>
       </c>
-      <c r="D19" s="28"/>
+      <c r="D19" s="17"/>
     </row>
     <row r="20" spans="1:28" ht="18" x14ac:dyDescent="0.3">
-      <c r="A20" s="28"/>
-      <c r="B20" s="28"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="28"/>
+      <c r="A20" s="37"/>
+      <c r="B20" s="38"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="17"/>
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="K21" s="18"/>
+      <c r="K21" s="10"/>
     </row>
     <row r="22" spans="1:28" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="K22" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="L22" s="35"/>
-      <c r="M22" s="35"/>
-      <c r="N22" s="35"/>
-      <c r="O22" s="35"/>
-      <c r="P22" s="35"/>
-      <c r="Q22" s="35"/>
-      <c r="R22" s="35"/>
-      <c r="S22" s="35"/>
-      <c r="T22" s="35"/>
-      <c r="U22" s="35"/>
-      <c r="V22" s="35"/>
-      <c r="W22" s="35"/>
-      <c r="X22" s="35"/>
-      <c r="Y22" s="35"/>
-      <c r="Z22" s="35"/>
-      <c r="AA22" s="35"/>
-      <c r="AB22" s="35"/>
+      <c r="K22" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="L22" s="23"/>
+      <c r="M22" s="23"/>
+      <c r="N22" s="23"/>
+      <c r="O22" s="23"/>
+      <c r="P22" s="23"/>
+      <c r="Q22" s="23"/>
+      <c r="R22" s="23"/>
+      <c r="S22" s="23"/>
+      <c r="T22" s="23"/>
+      <c r="U22" s="23"/>
+      <c r="V22" s="23"/>
+      <c r="W22" s="23"/>
+      <c r="X22" s="23"/>
+      <c r="Y22" s="23"/>
+      <c r="Z22" s="23"/>
+      <c r="AA22" s="23"/>
+      <c r="AB22" s="23"/>
     </row>
     <row r="23" spans="1:28" ht="21.6" thickTop="1" x14ac:dyDescent="0.3">
       <c r="K23" s="5">
@@ -5389,8 +5408,8 @@
       </c>
     </row>
     <row r="24" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="I24" s="36" t="s">
-        <v>37</v>
+      <c r="I24" s="19" t="s">
+        <v>36</v>
       </c>
       <c r="J24" s="6">
         <v>1</v>
@@ -5451,7 +5470,7 @@
       </c>
     </row>
     <row r="25" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="I25" s="37"/>
+      <c r="I25" s="20"/>
       <c r="J25" s="7">
         <v>2</v>
       </c>
@@ -5511,7 +5530,7 @@
       </c>
     </row>
     <row r="26" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="I26" s="37"/>
+      <c r="I26" s="20"/>
       <c r="J26" s="7">
         <v>3</v>
       </c>
@@ -5571,7 +5590,7 @@
       </c>
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="I27" s="37"/>
+      <c r="I27" s="20"/>
       <c r="J27" s="7">
         <v>4</v>
       </c>
@@ -5631,7 +5650,7 @@
       </c>
     </row>
     <row r="28" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="I28" s="37"/>
+      <c r="I28" s="20"/>
       <c r="J28" s="7">
         <v>5</v>
       </c>
@@ -5691,7 +5710,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="10">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
     <mergeCell ref="I6:I10"/>
     <mergeCell ref="I24:I28"/>
     <mergeCell ref="J4:X4"/>
@@ -5699,10 +5720,7 @@
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="A15:A17"/>
     <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A13:C13"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A3:C3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/inputs.xlsx
+++ b/inputs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m4oughi\Desktop\a\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61302C05-D62F-4E5E-B878-2BC5EBAEA0C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{508E08BB-3B7A-40AD-B7A9-381D00F8BE39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -458,43 +458,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="3" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -529,6 +496,39 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4753,7 +4753,7 @@
   <dimension ref="A1:AB28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.3"/>
@@ -4769,35 +4769,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="19.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="40"/>
-      <c r="B1" s="41"/>
-      <c r="C1" s="25" t="s">
+      <c r="A1" s="29"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="32"/>
+      <c r="F1" s="21"/>
       <c r="G1" s="9"/>
     </row>
     <row r="2" spans="1:24" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="24">
+      <c r="B2" s="32"/>
+      <c r="C2" s="19">
         <v>1</v>
       </c>
-      <c r="D2" s="24">
+      <c r="D2" s="19">
         <v>0</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="24">
+      <c r="F2" s="19">
         <v>1</v>
       </c>
       <c r="G2" s="17"/>
@@ -4805,16 +4805,16 @@
       <c r="I2" s="13"/>
     </row>
     <row r="3" spans="1:24" ht="18" x14ac:dyDescent="0.3">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="35"/>
-      <c r="C3" s="36"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="25"/>
       <c r="D3" s="17"/>
       <c r="E3" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="24">
+      <c r="F3" s="19">
         <v>0</v>
       </c>
       <c r="G3" s="17"/>
@@ -4833,29 +4833,29 @@
       <c r="E4" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="24">
+      <c r="F4" s="19">
         <v>0</v>
       </c>
       <c r="G4" s="17"/>
       <c r="H4" s="13"/>
       <c r="I4" s="13"/>
-      <c r="J4" s="21" t="s">
+      <c r="J4" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="22"/>
-      <c r="O4" s="22"/>
-      <c r="P4" s="22"/>
-      <c r="Q4" s="22"/>
-      <c r="R4" s="22"/>
-      <c r="S4" s="22"/>
-      <c r="T4" s="22"/>
-      <c r="U4" s="22"/>
-      <c r="V4" s="22"/>
-      <c r="W4" s="22"/>
-      <c r="X4" s="22"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="36"/>
+      <c r="M4" s="36"/>
+      <c r="N4" s="36"/>
+      <c r="O4" s="36"/>
+      <c r="P4" s="36"/>
+      <c r="Q4" s="36"/>
+      <c r="R4" s="36"/>
+      <c r="S4" s="36"/>
+      <c r="T4" s="36"/>
+      <c r="U4" s="36"/>
+      <c r="V4" s="36"/>
+      <c r="W4" s="36"/>
+      <c r="X4" s="36"/>
     </row>
     <row r="5" spans="1:24" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
@@ -4864,14 +4864,14 @@
       <c r="B5" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="24">
+      <c r="C5" s="19">
         <v>0</v>
       </c>
       <c r="D5" s="17"/>
       <c r="E5" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="24">
+      <c r="F5" s="19">
         <v>0</v>
       </c>
       <c r="G5" s="17"/>
@@ -4922,7 +4922,7 @@
       </c>
     </row>
     <row r="6" spans="1:24" ht="18" x14ac:dyDescent="0.3">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="40" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="11" t="s">
@@ -4935,12 +4935,12 @@
       <c r="E6" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="24">
+      <c r="F6" s="19">
         <v>0</v>
       </c>
       <c r="G6" s="17"/>
       <c r="H6" s="13"/>
-      <c r="I6" s="19" t="s">
+      <c r="I6" s="33" t="s">
         <v>36</v>
       </c>
       <c r="J6" s="6">
@@ -4990,7 +4990,7 @@
       </c>
     </row>
     <row r="7" spans="1:24" ht="18" x14ac:dyDescent="0.3">
-      <c r="A7" s="30"/>
+      <c r="A7" s="42"/>
       <c r="B7" s="11" t="s">
         <v>14</v>
       </c>
@@ -5001,12 +5001,12 @@
       <c r="E7" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="24">
+      <c r="F7" s="19">
         <v>0</v>
       </c>
       <c r="G7" s="17"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="20"/>
+      <c r="I7" s="34"/>
       <c r="J7" s="7">
         <v>2</v>
       </c>
@@ -5060,14 +5060,14 @@
       <c r="B8" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="24">
+      <c r="C8" s="19">
         <v>0.3</v>
       </c>
       <c r="D8" s="17"/>
       <c r="E8" s="15"/>
-      <c r="F8" s="33"/>
+      <c r="F8" s="22"/>
       <c r="G8" s="16"/>
-      <c r="I8" s="20"/>
+      <c r="I8" s="34"/>
       <c r="J8" s="7">
         <v>3</v>
       </c>
@@ -5115,13 +5115,13 @@
       </c>
     </row>
     <row r="9" spans="1:24" ht="18" x14ac:dyDescent="0.3">
-      <c r="A9" s="34" t="s">
+      <c r="A9" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="35"/>
-      <c r="C9" s="36"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="25"/>
       <c r="D9" s="17"/>
-      <c r="I9" s="20"/>
+      <c r="I9" s="34"/>
       <c r="J9" s="7">
         <v>4</v>
       </c>
@@ -5169,17 +5169,17 @@
       </c>
     </row>
     <row r="10" spans="1:24" ht="18" x14ac:dyDescent="0.3">
-      <c r="A10" s="27" t="s">
+      <c r="A10" s="38" t="s">
         <v>2</v>
       </c>
       <c r="B10" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="24">
+      <c r="C10" s="19">
         <v>1</v>
       </c>
       <c r="D10" s="17"/>
-      <c r="I10" s="20"/>
+      <c r="I10" s="34"/>
       <c r="J10" s="7">
         <v>5</v>
       </c>
@@ -5227,31 +5227,31 @@
       </c>
     </row>
     <row r="11" spans="1:24" ht="18" x14ac:dyDescent="0.3">
-      <c r="A11" s="26"/>
+      <c r="A11" s="43"/>
       <c r="B11" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="24">
+      <c r="C11" s="19">
         <v>1</v>
       </c>
       <c r="D11" s="17"/>
     </row>
     <row r="12" spans="1:24" ht="18" x14ac:dyDescent="0.3">
-      <c r="A12" s="28"/>
+      <c r="A12" s="39"/>
       <c r="B12" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="24">
+      <c r="C12" s="19">
         <v>1E-3</v>
       </c>
       <c r="D12" s="17"/>
     </row>
     <row r="13" spans="1:24" ht="18" x14ac:dyDescent="0.3">
-      <c r="A13" s="34" t="s">
+      <c r="A13" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="35"/>
-      <c r="C13" s="36"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="25"/>
       <c r="D13" s="17"/>
     </row>
     <row r="14" spans="1:24" ht="18" x14ac:dyDescent="0.3">
@@ -5261,13 +5261,13 @@
       <c r="B14" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="24">
+      <c r="C14" s="19">
         <v>10</v>
       </c>
       <c r="D14" s="17"/>
     </row>
     <row r="15" spans="1:24" ht="18" x14ac:dyDescent="0.3">
-      <c r="A15" s="29" t="s">
+      <c r="A15" s="40" t="s">
         <v>18</v>
       </c>
       <c r="B15" s="11" t="s">
@@ -5279,7 +5279,7 @@
       <c r="D15" s="17"/>
     </row>
     <row r="16" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="31"/>
+      <c r="A16" s="41"/>
       <c r="B16" s="11" t="s">
         <v>6</v>
       </c>
@@ -5289,7 +5289,7 @@
       <c r="D16" s="17"/>
     </row>
     <row r="17" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="30"/>
+      <c r="A17" s="42"/>
       <c r="B17" s="11" t="s">
         <v>7</v>
       </c>
@@ -5299,57 +5299,57 @@
       <c r="D17" s="17"/>
     </row>
     <row r="18" spans="1:28" ht="18" x14ac:dyDescent="0.3">
-      <c r="A18" s="27" t="s">
+      <c r="A18" s="38" t="s">
         <v>15</v>
       </c>
       <c r="B18" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="24">
+      <c r="C18" s="19">
         <v>0</v>
       </c>
       <c r="D18" s="17"/>
     </row>
     <row r="19" spans="1:28" ht="18" x14ac:dyDescent="0.3">
-      <c r="A19" s="28"/>
+      <c r="A19" s="39"/>
       <c r="B19" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="24">
+      <c r="C19" s="19">
         <v>0</v>
       </c>
       <c r="D19" s="17"/>
     </row>
     <row r="20" spans="1:28" ht="18" x14ac:dyDescent="0.3">
-      <c r="A20" s="37"/>
-      <c r="B20" s="38"/>
-      <c r="C20" s="39"/>
+      <c r="A20" s="26"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="28"/>
       <c r="D20" s="17"/>
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.3">
       <c r="K21" s="10"/>
     </row>
     <row r="22" spans="1:28" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="K22" s="21" t="s">
+      <c r="K22" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="L22" s="23"/>
-      <c r="M22" s="23"/>
-      <c r="N22" s="23"/>
-      <c r="O22" s="23"/>
-      <c r="P22" s="23"/>
-      <c r="Q22" s="23"/>
-      <c r="R22" s="23"/>
-      <c r="S22" s="23"/>
-      <c r="T22" s="23"/>
-      <c r="U22" s="23"/>
-      <c r="V22" s="23"/>
-      <c r="W22" s="23"/>
-      <c r="X22" s="23"/>
-      <c r="Y22" s="23"/>
-      <c r="Z22" s="23"/>
-      <c r="AA22" s="23"/>
-      <c r="AB22" s="23"/>
+      <c r="L22" s="37"/>
+      <c r="M22" s="37"/>
+      <c r="N22" s="37"/>
+      <c r="O22" s="37"/>
+      <c r="P22" s="37"/>
+      <c r="Q22" s="37"/>
+      <c r="R22" s="37"/>
+      <c r="S22" s="37"/>
+      <c r="T22" s="37"/>
+      <c r="U22" s="37"/>
+      <c r="V22" s="37"/>
+      <c r="W22" s="37"/>
+      <c r="X22" s="37"/>
+      <c r="Y22" s="37"/>
+      <c r="Z22" s="37"/>
+      <c r="AA22" s="37"/>
+      <c r="AB22" s="37"/>
     </row>
     <row r="23" spans="1:28" ht="21.6" thickTop="1" x14ac:dyDescent="0.3">
       <c r="K23" s="5">
@@ -5408,7 +5408,7 @@
       </c>
     </row>
     <row r="24" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="I24" s="19" t="s">
+      <c r="I24" s="33" t="s">
         <v>36</v>
       </c>
       <c r="J24" s="6">
@@ -5470,7 +5470,7 @@
       </c>
     </row>
     <row r="25" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="I25" s="20"/>
+      <c r="I25" s="34"/>
       <c r="J25" s="7">
         <v>2</v>
       </c>
@@ -5530,7 +5530,7 @@
       </c>
     </row>
     <row r="26" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="I26" s="20"/>
+      <c r="I26" s="34"/>
       <c r="J26" s="7">
         <v>3</v>
       </c>
@@ -5590,7 +5590,7 @@
       </c>
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="I27" s="20"/>
+      <c r="I27" s="34"/>
       <c r="J27" s="7">
         <v>4</v>
       </c>
@@ -5650,7 +5650,7 @@
       </c>
     </row>
     <row r="28" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="I28" s="20"/>
+      <c r="I28" s="34"/>
       <c r="J28" s="7">
         <v>5</v>
       </c>

--- a/inputs.xlsx
+++ b/inputs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m4oughi\Desktop\a\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{508E08BB-3B7A-40AD-B7A9-381D00F8BE39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3763697-8CE2-49C4-90BF-C8709BC58EBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4753,7 +4753,7 @@
   <dimension ref="A1:AB28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.3"/>
@@ -4798,7 +4798,7 @@
         <v>25</v>
       </c>
       <c r="F2" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" s="17"/>
       <c r="H2" s="13"/>
@@ -4865,14 +4865,14 @@
         <v>20</v>
       </c>
       <c r="C5" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" s="17"/>
       <c r="E5" s="12" t="s">
         <v>27</v>
       </c>
       <c r="F5" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" s="17"/>
       <c r="H5" s="13"/>
@@ -4929,7 +4929,7 @@
         <v>13</v>
       </c>
       <c r="C6" s="14">
-        <v>70</v>
+        <v>380</v>
       </c>
       <c r="D6" s="17"/>
       <c r="E6" s="12" t="s">
@@ -5242,7 +5242,7 @@
         <v>12</v>
       </c>
       <c r="C12" s="19">
-        <v>1E-3</v>
+        <v>0.2</v>
       </c>
       <c r="D12" s="17"/>
     </row>
@@ -5306,7 +5306,7 @@
         <v>21</v>
       </c>
       <c r="C18" s="19">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D18" s="17"/>
     </row>
@@ -5316,7 +5316,7 @@
         <v>22</v>
       </c>
       <c r="C19" s="19">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D19" s="17"/>
     </row>

--- a/inputs.xlsx
+++ b/inputs.xlsx
@@ -5,17 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m4oughi\Desktop\a\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m4oughi\Desktop\Buckling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3763697-8CE2-49C4-90BF-C8709BC58EBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35D71BCF-D1D6-423F-ACF4-25C602729409}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="69">
   <si>
     <t>Modulus of Elasticity</t>
   </si>
@@ -140,6 +141,99 @@
   <si>
     <t>Introduction</t>
   </si>
+  <si>
+    <t>Number of Modes</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>Density</t>
+  </si>
+  <si>
+    <t>Roc</t>
+  </si>
+  <si>
+    <t>Rom</t>
+  </si>
+  <si>
+    <t>Al</t>
+  </si>
+  <si>
+    <t>Al2O3</t>
+  </si>
+  <si>
+    <t>ZrO2</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>Noo</t>
+  </si>
+  <si>
+    <t>Ro</t>
+  </si>
+  <si>
+    <t>Boundary Conition</t>
+  </si>
+  <si>
+    <t>Ks_bar</t>
+  </si>
+  <si>
+    <t>SSSS - 2D</t>
+  </si>
+  <si>
+    <t>SSSS - Quasi-3D</t>
+  </si>
+  <si>
+    <t>SSSC - 2D</t>
+  </si>
+  <si>
+    <t>SSSC - Quasi-3D</t>
+  </si>
+  <si>
+    <t>SSSF - 2D</t>
+  </si>
+  <si>
+    <t>SSSF - Quasi-3D</t>
+  </si>
+  <si>
+    <t>SCSC - 2D</t>
+  </si>
+  <si>
+    <t>SCSC - Quasi-3D</t>
+  </si>
+  <si>
+    <t>SCSF - 2D</t>
+  </si>
+  <si>
+    <t>SCSF - Quasi-3D</t>
+  </si>
+  <si>
+    <t>SFSF - 2D</t>
+  </si>
+  <si>
+    <t>SFSF -Quasi-3D</t>
+  </si>
+  <si>
+    <t>SSSD - Quasi-3D</t>
+  </si>
+  <si>
+    <t>SFSF - Quasi-3D</t>
+  </si>
+  <si>
+    <t>(0,0)</t>
+  </si>
+  <si>
+    <t>(100, 10)</t>
+  </si>
+  <si>
+    <t>(1000, 100)</t>
+  </si>
+  <si>
+    <t>b/a</t>
+  </si>
 </sst>
 </file>
 
@@ -252,7 +346,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -398,6 +492,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -406,7 +520,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -449,9 +563,6 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="5" fillId="7" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -486,6 +597,34 @@
     <xf numFmtId="1" fontId="5" fillId="7" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="1" fontId="5" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -529,6 +668,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -688,7 +839,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'1'!$J$6:$J$10</c:f>
+              <c:f>'1'!$J$9:$J$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -712,7 +863,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'1'!$K$6:$K$10</c:f>
+              <c:f>'1'!$K$9:$K$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1057,7 +1208,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'1'!$J$6:$J$10</c:f>
+              <c:f>'1'!$J$9:$J$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1081,7 +1232,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'1'!$X$6:$X$10</c:f>
+              <c:f>'1'!$X$9:$X$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1438,7 +1589,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'1'!$J$24:$J$28</c:f>
+              <c:f>'1'!$J$27:$J$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1462,7 +1613,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'1'!$K$24:$K$28</c:f>
+              <c:f>'1'!$K$27:$K$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1819,7 +1970,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'1'!$J$24:$J$28</c:f>
+              <c:f>'1'!$J$27:$J$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1843,7 +1994,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'1'!$AB$24:$AB$28</c:f>
+              <c:f>'1'!$AB$27:$AB$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2015,6 +2166,1928 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SSSS - Quasi-3D</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$L$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$4:$L$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>10.80387</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.854699999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.90554</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.31222</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.82057</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15.8873</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20.97052</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>61.628729999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>112.43254</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-191D-456D-B1DB-C2FB51E8A4FB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SSSC - Quasi-3D</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$L$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$6:$L$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>15.161440000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.212260000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.26308</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15.66962</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.178799999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20.24314</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25.32461</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>65.968720000000005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>116.74451999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-191D-456D-B1DB-C2FB51E8A4FB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SSSF - Quasi-3D</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$L$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$8:$L$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>3.7560099999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.8069500000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.8578899999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.2653699999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.7747200000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.8494299999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13.942550000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>54.676650000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>105.56607</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-191D-456D-B1DB-C2FB51E8A4FB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SCSC - Quasi-3D</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$L$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$10:$L$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>22.157440000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22.208269999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22.2591</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22.665700000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>23.173950000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>27.239879999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32.322090000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>72.972130000000007</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>123.76537</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-191D-456D-B1DB-C2FB51E8A4FB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SCSF - Quasi-3D</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$L$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$12:$L$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>4.3904899999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.4413900000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.4922899999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.8994600000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.4084199999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.4800299999999993</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14.569229999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55.270850000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>106.11671</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-191D-456D-B1DB-C2FB51E8A4FB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SFSF -Quasi-3D</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$L$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$14:$L$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2.5562499999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.6072799999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.6583100000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0665800000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.5769099999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.6594600000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.76243</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>53.57694</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>104.57151</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-191D-456D-B1DB-C2FB51E8A4FB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="430859968"/>
+        <c:axId val="430848448"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="430859968"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="10000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Kw_bar</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="430848448"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="430848448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Critical Buckling Load</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="430859968"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SSSS - Quasi-3D</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$17:$K$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$19:$K$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>10.80387</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.807449999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.81101</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20.839210000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30.8736</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>111.11724</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>211.34614999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1010.19158</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E984-42C7-9CD8-A25283F34A2B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SSSC - Quasi-3D</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$17:$K$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$21:$K$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>15.161440000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16.232030000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17.301390000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25.817609999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>36.386580000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>119.5287</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>222.12979999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1033.3093799999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E984-42C7-9CD8-A25283F34A2B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SSSD - Quasi-3D</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$17:$K$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$23:$K$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>3.7560099999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.4086999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.0583299999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.192909999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.544049999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>66.969989999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>129.86216999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>631.67444999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-E984-42C7-9CD8-A25283F34A2B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SCSC - Quasi-3D</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$17:$K$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$25:$K$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>22.157440000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>23.270879999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24.382829999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>33.229680000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44.186309999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>129.71713</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>234.4846</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1058.0405699999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-E984-42C7-9CD8-A25283F34A2B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SCSF - Quasi-3D</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$17:$K$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$27:$K$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>4.3904899999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.0848000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.7732599999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.150690000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17.71443</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>69.02561</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>132.55512999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>637.49418000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-E984-42C7-9CD8-A25283F34A2B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SFSF - Quasi-3D</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$17:$K$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$29:$K$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2.5562499999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.06738</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.5775899999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.64018</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.69786</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>53.038139999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>103.41088000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>505.61380000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-E984-42C7-9CD8-A25283F34A2B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="220756880"/>
+        <c:axId val="220757360"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="220756880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="5000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Ks_bar</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="220757360"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="220757360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Critical Buckling Load</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="220756880"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -2219,6 +4292,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -3768,6 +5921,1038 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4289,7 +7474,7 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>167640</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>83820</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="65" cy="162224"/>
@@ -4344,13 +7529,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>60960</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4380,13 +7565,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>83820</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>373380</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>99060</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4416,13 +7601,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>53340</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4452,13 +7637,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>373380</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>129540</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4479,6 +7664,83 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>274320</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>579120</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C18A2150-66E7-8553-DA21-729AFC39269C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>274320</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>579120</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D196984-097F-6BC2-40CC-3125D0349A82}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4750,10 +8012,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB28"/>
+  <dimension ref="A1:AB31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.3"/>
@@ -4769,961 +8031,2484 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="19.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="29"/>
-      <c r="B1" s="30"/>
-      <c r="C1" s="20" t="s">
+      <c r="A1" s="38"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="21"/>
+      <c r="F1" s="20"/>
       <c r="G1" s="9"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="2" spans="1:24" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="19">
+      <c r="B2" s="41"/>
+      <c r="C2" s="18">
+        <v>0</v>
+      </c>
+      <c r="D2" s="18">
         <v>1</v>
-      </c>
-      <c r="D2" s="19">
-        <v>0</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="19">
-        <v>0</v>
-      </c>
-      <c r="G2" s="17"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
+      <c r="F2" s="18">
+        <v>1</v>
+      </c>
+      <c r="G2" s="16"/>
+      <c r="H2" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2" s="13">
+        <v>70</v>
+      </c>
+      <c r="J2" s="13">
+        <v>0.3</v>
+      </c>
+      <c r="K2" s="13">
+        <v>2702</v>
+      </c>
     </row>
     <row r="3" spans="1:24" ht="18" x14ac:dyDescent="0.3">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="17"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="16"/>
       <c r="E3" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="19">
+      <c r="F3" s="18">
         <v>0</v>
       </c>
-      <c r="G3" s="17"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="I3" s="13">
+        <v>380</v>
+      </c>
+      <c r="J3" s="13">
+        <v>0.3</v>
+      </c>
+      <c r="K3" s="13">
+        <v>3800</v>
+      </c>
     </row>
     <row r="4" spans="1:24" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="17" t="s">
         <v>37</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="3"/>
-      <c r="D4" s="17"/>
+      <c r="D4" s="16"/>
       <c r="E4" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="19">
+      <c r="F4" s="18">
         <v>0</v>
       </c>
-      <c r="G4" s="17"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="K4" s="36"/>
-      <c r="L4" s="36"/>
-      <c r="M4" s="36"/>
-      <c r="N4" s="36"/>
-      <c r="O4" s="36"/>
-      <c r="P4" s="36"/>
-      <c r="Q4" s="36"/>
-      <c r="R4" s="36"/>
-      <c r="S4" s="36"/>
-      <c r="T4" s="36"/>
-      <c r="U4" s="36"/>
-      <c r="V4" s="36"/>
-      <c r="W4" s="36"/>
-      <c r="X4" s="36"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="I4" s="13">
+        <v>200</v>
+      </c>
+      <c r="J4" s="13">
+        <v>0.23</v>
+      </c>
+      <c r="K4" s="13">
+        <v>5700</v>
+      </c>
     </row>
-    <row r="5" spans="1:24" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="12" t="s">
         <v>19</v>
       </c>
       <c r="B5" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="19">
-        <v>1</v>
-      </c>
-      <c r="D5" s="17"/>
+      <c r="C5" s="18">
+        <v>10</v>
+      </c>
+      <c r="D5" s="16"/>
       <c r="E5" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="19">
-        <v>1</v>
-      </c>
-      <c r="G5" s="17"/>
+      <c r="F5" s="18">
+        <v>0</v>
+      </c>
+      <c r="G5" s="16"/>
       <c r="H5" s="13"/>
       <c r="I5" s="13"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="5">
-        <v>1</v>
-      </c>
-      <c r="L5" s="5">
-        <v>2</v>
-      </c>
-      <c r="M5" s="5">
-        <v>3</v>
-      </c>
-      <c r="N5" s="5">
-        <v>4</v>
-      </c>
-      <c r="O5" s="5">
-        <v>5</v>
-      </c>
-      <c r="P5" s="5">
-        <v>6</v>
-      </c>
-      <c r="Q5" s="8">
-        <v>7</v>
-      </c>
-      <c r="R5" s="8">
-        <v>8</v>
-      </c>
-      <c r="S5" s="5">
-        <v>9</v>
-      </c>
-      <c r="T5" s="5">
-        <v>10</v>
-      </c>
-      <c r="U5" s="5">
-        <v>11</v>
-      </c>
-      <c r="V5" s="5">
-        <v>12</v>
-      </c>
-      <c r="W5" s="5">
-        <v>13</v>
-      </c>
-      <c r="X5" s="5">
-        <v>14</v>
-      </c>
+      <c r="J5" s="44" t="s">
+        <v>34</v>
+      </c>
+      <c r="K5" s="45"/>
+      <c r="L5" s="45"/>
+      <c r="M5" s="45"/>
+      <c r="N5" s="45"/>
+      <c r="O5" s="45"/>
+      <c r="P5" s="45"/>
+      <c r="Q5" s="45"/>
+      <c r="R5" s="45"/>
+      <c r="S5" s="45"/>
+      <c r="T5" s="45"/>
+      <c r="U5" s="45"/>
+      <c r="V5" s="45"/>
+      <c r="W5" s="45"/>
+      <c r="X5" s="45"/>
     </row>
-    <row r="6" spans="1:24" ht="18" x14ac:dyDescent="0.3">
-      <c r="A6" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="14">
-        <v>380</v>
-      </c>
-      <c r="D6" s="17"/>
+    <row r="6" spans="1:24" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="18">
+        <v>3800</v>
+      </c>
+      <c r="D6" s="16"/>
       <c r="E6" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="19">
+      <c r="F6" s="18">
         <v>0</v>
       </c>
-      <c r="G6" s="17"/>
+      <c r="G6" s="16"/>
       <c r="H6" s="13"/>
-      <c r="I6" s="33" t="s">
-        <v>36</v>
-      </c>
-      <c r="J6" s="6">
+      <c r="I6" s="13"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="5">
         <v>1</v>
       </c>
-      <c r="K6" s="1">
-        <v>1</v>
-      </c>
-      <c r="L6" s="1">
+      <c r="L6" s="5">
         <v>2</v>
       </c>
-      <c r="M6" s="1">
+      <c r="M6" s="5">
         <v>3</v>
       </c>
-      <c r="N6" s="1">
+      <c r="N6" s="5">
         <v>4</v>
       </c>
-      <c r="O6" s="1">
+      <c r="O6" s="5">
         <v>5</v>
       </c>
-      <c r="P6" s="1">
+      <c r="P6" s="5">
         <v>6</v>
       </c>
-      <c r="Q6" s="1">
+      <c r="Q6" s="8">
         <v>7</v>
       </c>
-      <c r="R6" s="1">
+      <c r="R6" s="8">
         <v>8</v>
       </c>
-      <c r="S6" s="1">
+      <c r="S6" s="5">
         <v>9</v>
       </c>
-      <c r="T6" s="1">
+      <c r="T6" s="5">
         <v>10</v>
       </c>
-      <c r="U6" s="1">
+      <c r="U6" s="5">
         <v>11</v>
       </c>
-      <c r="V6" s="1">
+      <c r="V6" s="5">
         <v>12</v>
       </c>
-      <c r="W6" s="1">
+      <c r="W6" s="5">
         <v>13</v>
       </c>
-      <c r="X6" s="1">
+      <c r="X6" s="5">
         <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:24" ht="18" x14ac:dyDescent="0.3">
-      <c r="A7" s="42"/>
-      <c r="B7" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="14">
-        <v>70</v>
-      </c>
-      <c r="D7" s="17"/>
+      <c r="A7" s="54"/>
+      <c r="B7" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="18">
+        <v>2702</v>
+      </c>
+      <c r="D7" s="16"/>
       <c r="E7" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="19">
+      <c r="F7" s="18">
         <v>0</v>
       </c>
-      <c r="G7" s="17"/>
+      <c r="G7" s="16"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="34"/>
-      <c r="J7" s="7">
-        <v>2</v>
-      </c>
-      <c r="K7" s="1">
-        <v>9</v>
-      </c>
-      <c r="L7" s="1">
-        <v>10</v>
-      </c>
-      <c r="M7" s="1">
-        <v>11</v>
-      </c>
-      <c r="N7" s="1">
-        <v>12</v>
-      </c>
-      <c r="O7" s="1">
-        <v>13</v>
-      </c>
-      <c r="P7" s="1">
-        <v>14</v>
-      </c>
-      <c r="Q7" s="1">
-        <v>15</v>
-      </c>
-      <c r="R7" s="1">
-        <v>16</v>
-      </c>
-      <c r="S7" s="1">
-        <v>17</v>
-      </c>
-      <c r="T7" s="1">
-        <v>18</v>
-      </c>
-      <c r="U7" s="1">
-        <v>19</v>
-      </c>
-      <c r="V7" s="1">
-        <v>20</v>
-      </c>
-      <c r="W7" s="1">
-        <v>21</v>
-      </c>
-      <c r="X7" s="1">
-        <v>22</v>
-      </c>
+      <c r="I7" s="13"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="5"/>
+      <c r="W7" s="5"/>
+      <c r="X7" s="5"/>
     </row>
     <row r="8" spans="1:24" ht="18" x14ac:dyDescent="0.3">
-      <c r="A8" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="19">
-        <v>0.3</v>
-      </c>
-      <c r="D8" s="17"/>
+      <c r="A8" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="14">
+        <v>380</v>
+      </c>
+      <c r="D8" s="16"/>
       <c r="E8" s="15"/>
-      <c r="F8" s="22"/>
+      <c r="F8" s="21"/>
       <c r="G8" s="16"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="7">
-        <v>3</v>
-      </c>
-      <c r="K8" s="1">
-        <v>17</v>
-      </c>
-      <c r="L8" s="1">
-        <v>18</v>
-      </c>
-      <c r="M8" s="1">
-        <v>19</v>
-      </c>
-      <c r="N8" s="1">
-        <v>20</v>
-      </c>
-      <c r="O8" s="1">
-        <v>21</v>
-      </c>
-      <c r="P8" s="1">
-        <v>22</v>
-      </c>
-      <c r="Q8" s="1">
-        <v>23</v>
-      </c>
-      <c r="R8" s="1">
-        <v>24</v>
-      </c>
-      <c r="S8" s="1">
-        <v>25</v>
-      </c>
-      <c r="T8" s="1">
-        <v>26</v>
-      </c>
-      <c r="U8" s="1">
-        <v>27</v>
-      </c>
-      <c r="V8" s="1">
-        <v>28</v>
-      </c>
-      <c r="W8" s="1">
-        <v>29</v>
-      </c>
-      <c r="X8" s="1">
-        <v>30</v>
-      </c>
+      <c r="H8" s="13"/>
+      <c r="I8" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="J8" s="29"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="8"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="5"/>
+      <c r="W8" s="5"/>
+      <c r="X8" s="5"/>
     </row>
     <row r="9" spans="1:24" ht="18" x14ac:dyDescent="0.3">
-      <c r="A9" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" s="24"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="17"/>
-      <c r="I9" s="34"/>
-      <c r="J9" s="7">
+      <c r="A9" s="51"/>
+      <c r="B9" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="14">
+        <v>70</v>
+      </c>
+      <c r="D9" s="16"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="43"/>
+      <c r="J9" s="6">
+        <v>1</v>
+      </c>
+      <c r="K9" s="1">
+        <v>1</v>
+      </c>
+      <c r="L9" s="1">
+        <v>2</v>
+      </c>
+      <c r="M9" s="1">
+        <v>3</v>
+      </c>
+      <c r="N9" s="1">
         <v>4</v>
       </c>
-      <c r="K9" s="1">
-        <v>25</v>
-      </c>
-      <c r="L9" s="1">
-        <v>26</v>
-      </c>
-      <c r="M9" s="1">
-        <v>27</v>
-      </c>
-      <c r="N9" s="1">
-        <v>28</v>
-      </c>
       <c r="O9" s="1">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="P9" s="1">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="Q9" s="1">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="R9" s="1">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="S9" s="1">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="T9" s="1">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="U9" s="1">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="V9" s="1">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="W9" s="1">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="X9" s="1">
-        <v>38</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:24" ht="18" x14ac:dyDescent="0.3">
-      <c r="A10" s="38" t="s">
+      <c r="A10" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="18">
+        <v>0.3</v>
+      </c>
+      <c r="D10" s="16"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="33"/>
+      <c r="I10" s="43"/>
+      <c r="J10" s="7">
         <v>2</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="K10" s="1">
+        <v>9</v>
+      </c>
+      <c r="L10" s="1">
         <v>10</v>
       </c>
-      <c r="C10" s="19">
-        <v>1</v>
-      </c>
-      <c r="D10" s="17"/>
-      <c r="I10" s="34"/>
-      <c r="J10" s="7">
-        <v>5</v>
-      </c>
-      <c r="K10" s="1">
-        <v>33</v>
-      </c>
-      <c r="L10" s="1">
-        <v>34</v>
-      </c>
       <c r="M10" s="1">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="N10" s="1">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="O10" s="1">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="P10" s="1">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="Q10" s="1">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="R10" s="1">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="S10" s="1">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="T10" s="1">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="U10" s="1">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="V10" s="1">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="W10" s="1">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="X10" s="1">
-        <v>46</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:24" ht="18" x14ac:dyDescent="0.3">
-      <c r="A11" s="43"/>
-      <c r="B11" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="19">
-        <v>1</v>
-      </c>
-      <c r="D11" s="17"/>
+      <c r="A11" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="23"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="16"/>
+      <c r="I11" s="43"/>
+      <c r="J11" s="7">
+        <v>3</v>
+      </c>
+      <c r="K11" s="1">
+        <v>17</v>
+      </c>
+      <c r="L11" s="1">
+        <v>18</v>
+      </c>
+      <c r="M11" s="1">
+        <v>19</v>
+      </c>
+      <c r="N11" s="1">
+        <v>20</v>
+      </c>
+      <c r="O11" s="1">
+        <v>21</v>
+      </c>
+      <c r="P11" s="1">
+        <v>22</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>23</v>
+      </c>
+      <c r="R11" s="1">
+        <v>24</v>
+      </c>
+      <c r="S11" s="1">
+        <v>25</v>
+      </c>
+      <c r="T11" s="1">
+        <v>26</v>
+      </c>
+      <c r="U11" s="1">
+        <v>27</v>
+      </c>
+      <c r="V11" s="1">
+        <v>28</v>
+      </c>
+      <c r="W11" s="1">
+        <v>29</v>
+      </c>
+      <c r="X11" s="1">
+        <v>30</v>
+      </c>
     </row>
     <row r="12" spans="1:24" ht="18" x14ac:dyDescent="0.3">
-      <c r="A12" s="39"/>
+      <c r="A12" s="47" t="s">
+        <v>2</v>
+      </c>
       <c r="B12" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="19">
-        <v>0.2</v>
-      </c>
-      <c r="D12" s="17"/>
+        <v>10</v>
+      </c>
+      <c r="C12" s="18">
+        <v>1</v>
+      </c>
+      <c r="D12" s="16"/>
+      <c r="I12" s="43"/>
+      <c r="J12" s="7">
+        <v>4</v>
+      </c>
+      <c r="K12" s="1">
+        <v>25</v>
+      </c>
+      <c r="L12" s="1">
+        <v>26</v>
+      </c>
+      <c r="M12" s="1">
+        <v>27</v>
+      </c>
+      <c r="N12" s="1">
+        <v>28</v>
+      </c>
+      <c r="O12" s="1">
+        <v>29</v>
+      </c>
+      <c r="P12" s="1">
+        <v>30</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>31</v>
+      </c>
+      <c r="R12" s="1">
+        <v>32</v>
+      </c>
+      <c r="S12" s="1">
+        <v>33</v>
+      </c>
+      <c r="T12" s="1">
+        <v>34</v>
+      </c>
+      <c r="U12" s="1">
+        <v>35</v>
+      </c>
+      <c r="V12" s="1">
+        <v>36</v>
+      </c>
+      <c r="W12" s="1">
+        <v>37</v>
+      </c>
+      <c r="X12" s="1">
+        <v>38</v>
+      </c>
     </row>
     <row r="13" spans="1:24" ht="18" x14ac:dyDescent="0.3">
-      <c r="A13" s="23" t="s">
+      <c r="A13" s="52"/>
+      <c r="B13" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="18">
+        <v>1</v>
+      </c>
+      <c r="D13" s="16"/>
+      <c r="J13" s="7">
+        <v>5</v>
+      </c>
+      <c r="K13" s="1">
         <v>33</v>
       </c>
-      <c r="B13" s="24"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="17"/>
+      <c r="L13" s="1">
+        <v>34</v>
+      </c>
+      <c r="M13" s="1">
+        <v>35</v>
+      </c>
+      <c r="N13" s="1">
+        <v>36</v>
+      </c>
+      <c r="O13" s="1">
+        <v>37</v>
+      </c>
+      <c r="P13" s="1">
+        <v>38</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>39</v>
+      </c>
+      <c r="R13" s="1">
+        <v>40</v>
+      </c>
+      <c r="S13" s="1">
+        <v>41</v>
+      </c>
+      <c r="T13" s="1">
+        <v>42</v>
+      </c>
+      <c r="U13" s="1">
+        <v>43</v>
+      </c>
+      <c r="V13" s="1">
+        <v>44</v>
+      </c>
+      <c r="W13" s="1">
+        <v>45</v>
+      </c>
+      <c r="X13" s="1">
+        <v>46</v>
+      </c>
     </row>
     <row r="14" spans="1:24" ht="18" x14ac:dyDescent="0.3">
-      <c r="A14" s="12" t="s">
-        <v>3</v>
-      </c>
+      <c r="A14" s="48"/>
       <c r="B14" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" s="19">
-        <v>10</v>
-      </c>
-      <c r="D14" s="17"/>
+        <v>12</v>
+      </c>
+      <c r="C14" s="18">
+        <v>0.1</v>
+      </c>
+      <c r="D14" s="16"/>
     </row>
     <row r="15" spans="1:24" ht="18" x14ac:dyDescent="0.3">
-      <c r="A15" s="40" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="14">
-        <v>0</v>
-      </c>
-      <c r="D15" s="17"/>
+      <c r="A15" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="23"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="16"/>
     </row>
-    <row r="16" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="41"/>
-      <c r="B16" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="14">
+    <row r="16" spans="1:24" ht="18" x14ac:dyDescent="0.3">
+      <c r="A16" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="18">
         <v>1</v>
       </c>
-      <c r="D16" s="17"/>
+      <c r="D16" s="16"/>
     </row>
-    <row r="17" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="42"/>
-      <c r="B17" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="14">
-        <v>0</v>
-      </c>
-      <c r="D17" s="17"/>
+    <row r="17" spans="1:28" ht="18" x14ac:dyDescent="0.3">
+      <c r="A17" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="18">
+        <v>10</v>
+      </c>
+      <c r="D17" s="16"/>
     </row>
     <row r="18" spans="1:28" ht="18" x14ac:dyDescent="0.3">
-      <c r="A18" s="38" t="s">
+      <c r="A18" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="14">
+        <v>1</v>
+      </c>
+      <c r="D18" s="16"/>
+    </row>
+    <row r="19" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="50"/>
+      <c r="B19" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="14">
+        <v>0</v>
+      </c>
+      <c r="D19" s="16"/>
+    </row>
+    <row r="20" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="51"/>
+      <c r="B20" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="14">
+        <v>0</v>
+      </c>
+      <c r="D20" s="16"/>
+    </row>
+    <row r="21" spans="1:28" ht="18" x14ac:dyDescent="0.3">
+      <c r="A21" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B21" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="19">
-        <v>100</v>
-      </c>
-      <c r="D18" s="17"/>
+      <c r="C21" s="18">
+        <v>0</v>
+      </c>
+      <c r="D21" s="16"/>
     </row>
-    <row r="19" spans="1:28" ht="18" x14ac:dyDescent="0.3">
-      <c r="A19" s="39"/>
-      <c r="B19" s="12" t="s">
+    <row r="22" spans="1:28" ht="18" x14ac:dyDescent="0.3">
+      <c r="A22" s="48"/>
+      <c r="B22" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="19">
-        <v>10</v>
-      </c>
-      <c r="D19" s="17"/>
+      <c r="C22" s="18">
+        <v>0</v>
+      </c>
+      <c r="D22" s="16"/>
     </row>
-    <row r="20" spans="1:28" ht="18" x14ac:dyDescent="0.3">
-      <c r="A20" s="26"/>
-      <c r="B20" s="27"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="17"/>
-    </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="K21" s="10"/>
-    </row>
-    <row r="22" spans="1:28" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="K22" s="35" t="s">
-        <v>35</v>
-      </c>
-      <c r="L22" s="37"/>
-      <c r="M22" s="37"/>
-      <c r="N22" s="37"/>
-      <c r="O22" s="37"/>
-      <c r="P22" s="37"/>
-      <c r="Q22" s="37"/>
-      <c r="R22" s="37"/>
-      <c r="S22" s="37"/>
-      <c r="T22" s="37"/>
-      <c r="U22" s="37"/>
-      <c r="V22" s="37"/>
-      <c r="W22" s="37"/>
-      <c r="X22" s="37"/>
-      <c r="Y22" s="37"/>
-      <c r="Z22" s="37"/>
-      <c r="AA22" s="37"/>
-      <c r="AB22" s="37"/>
-    </row>
-    <row r="23" spans="1:28" ht="21.6" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="K23" s="5">
-        <v>1</v>
-      </c>
-      <c r="L23" s="5">
-        <v>2</v>
-      </c>
-      <c r="M23" s="5">
-        <v>3</v>
-      </c>
-      <c r="N23" s="5">
-        <v>4</v>
-      </c>
-      <c r="O23" s="5">
-        <v>5</v>
-      </c>
-      <c r="P23" s="5">
-        <v>6</v>
-      </c>
-      <c r="Q23" s="5">
-        <v>7</v>
-      </c>
-      <c r="R23" s="5">
-        <v>8</v>
-      </c>
-      <c r="S23" s="8">
-        <v>9</v>
-      </c>
-      <c r="T23" s="8">
-        <v>10</v>
-      </c>
-      <c r="U23" s="5">
-        <v>11</v>
-      </c>
-      <c r="V23" s="5">
-        <v>12</v>
-      </c>
-      <c r="W23" s="5">
-        <v>13</v>
-      </c>
-      <c r="X23" s="5">
-        <v>14</v>
-      </c>
-      <c r="Y23" s="5">
-        <v>15</v>
-      </c>
-      <c r="Z23" s="5">
-        <v>16</v>
-      </c>
-      <c r="AA23" s="5">
-        <v>17</v>
-      </c>
-      <c r="AB23" s="5">
-        <v>18</v>
-      </c>
+    <row r="23" spans="1:28" ht="18" x14ac:dyDescent="0.3">
+      <c r="A23" s="25"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="16"/>
     </row>
     <row r="24" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="I24" s="33" t="s">
-        <v>36</v>
-      </c>
-      <c r="J24" s="6">
+      <c r="K24" s="10"/>
+    </row>
+    <row r="25" spans="1:28" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K25" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="L25" s="46"/>
+      <c r="M25" s="46"/>
+      <c r="N25" s="46"/>
+      <c r="O25" s="46"/>
+      <c r="P25" s="46"/>
+      <c r="Q25" s="46"/>
+      <c r="R25" s="46"/>
+      <c r="S25" s="46"/>
+      <c r="T25" s="46"/>
+      <c r="U25" s="46"/>
+      <c r="V25" s="46"/>
+      <c r="W25" s="46"/>
+      <c r="X25" s="46"/>
+      <c r="Y25" s="46"/>
+      <c r="Z25" s="46"/>
+      <c r="AA25" s="46"/>
+      <c r="AB25" s="46"/>
+    </row>
+    <row r="26" spans="1:28" ht="21.6" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="K26" s="5">
         <v>1</v>
       </c>
-      <c r="K24" s="1">
-        <v>1</v>
-      </c>
-      <c r="L24" s="1">
+      <c r="L26" s="5">
         <v>2</v>
       </c>
-      <c r="M24" s="1">
+      <c r="M26" s="5">
         <v>3</v>
       </c>
-      <c r="N24" s="1">
+      <c r="N26" s="5">
         <v>4</v>
       </c>
-      <c r="O24" s="1">
+      <c r="O26" s="5">
         <v>5</v>
       </c>
-      <c r="P24" s="1">
+      <c r="P26" s="5">
         <v>6</v>
       </c>
-      <c r="Q24" s="1">
+      <c r="Q26" s="5">
         <v>7</v>
       </c>
-      <c r="R24" s="1">
+      <c r="R26" s="5">
         <v>8</v>
       </c>
-      <c r="S24" s="1">
+      <c r="S26" s="8">
         <v>9</v>
       </c>
-      <c r="T24" s="1">
+      <c r="T26" s="8">
         <v>10</v>
       </c>
-      <c r="U24" s="1">
+      <c r="U26" s="5">
         <v>11</v>
       </c>
-      <c r="V24" s="1">
+      <c r="V26" s="5">
         <v>12</v>
       </c>
-      <c r="W24" s="1">
+      <c r="W26" s="5">
         <v>13</v>
       </c>
-      <c r="X24" s="1">
+      <c r="X26" s="5">
         <v>14</v>
       </c>
-      <c r="Y24" s="1">
+      <c r="Y26" s="5">
         <v>15</v>
       </c>
-      <c r="Z24" s="1">
+      <c r="Z26" s="5">
         <v>16</v>
       </c>
-      <c r="AA24" s="1">
+      <c r="AA26" s="5">
         <v>17</v>
       </c>
-      <c r="AB24" s="1">
+      <c r="AB26" s="5">
         <v>18</v>
-      </c>
-    </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="I25" s="34"/>
-      <c r="J25" s="7">
-        <v>2</v>
-      </c>
-      <c r="K25" s="1">
-        <v>11</v>
-      </c>
-      <c r="L25" s="1">
-        <v>12</v>
-      </c>
-      <c r="M25" s="1">
-        <v>13</v>
-      </c>
-      <c r="N25" s="1">
-        <v>14</v>
-      </c>
-      <c r="O25" s="1">
-        <v>15</v>
-      </c>
-      <c r="P25" s="1">
-        <v>16</v>
-      </c>
-      <c r="Q25" s="1">
-        <v>17</v>
-      </c>
-      <c r="R25" s="1">
-        <v>18</v>
-      </c>
-      <c r="S25" s="1">
-        <v>19</v>
-      </c>
-      <c r="T25" s="1">
-        <v>20</v>
-      </c>
-      <c r="U25" s="1">
-        <v>21</v>
-      </c>
-      <c r="V25" s="1">
-        <v>22</v>
-      </c>
-      <c r="W25" s="1">
-        <v>23</v>
-      </c>
-      <c r="X25" s="1">
-        <v>24</v>
-      </c>
-      <c r="Y25" s="1">
-        <v>25</v>
-      </c>
-      <c r="Z25" s="1">
-        <v>26</v>
-      </c>
-      <c r="AA25" s="1">
-        <v>27</v>
-      </c>
-      <c r="AB25" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="I26" s="34"/>
-      <c r="J26" s="7">
-        <v>3</v>
-      </c>
-      <c r="K26" s="1">
-        <v>21</v>
-      </c>
-      <c r="L26" s="1">
-        <v>22</v>
-      </c>
-      <c r="M26" s="1">
-        <v>23</v>
-      </c>
-      <c r="N26" s="1">
-        <v>24</v>
-      </c>
-      <c r="O26" s="1">
-        <v>25</v>
-      </c>
-      <c r="P26" s="1">
-        <v>26</v>
-      </c>
-      <c r="Q26" s="1">
-        <v>27</v>
-      </c>
-      <c r="R26" s="1">
-        <v>28</v>
-      </c>
-      <c r="S26" s="1">
-        <v>29</v>
-      </c>
-      <c r="T26" s="1">
-        <v>30</v>
-      </c>
-      <c r="U26" s="1">
-        <v>31</v>
-      </c>
-      <c r="V26" s="1">
-        <v>32</v>
-      </c>
-      <c r="W26" s="1">
-        <v>33</v>
-      </c>
-      <c r="X26" s="1">
-        <v>34</v>
-      </c>
-      <c r="Y26" s="1">
-        <v>35</v>
-      </c>
-      <c r="Z26" s="1">
-        <v>36</v>
-      </c>
-      <c r="AA26" s="1">
-        <v>37</v>
-      </c>
-      <c r="AB26" s="1">
-        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="I27" s="34"/>
-      <c r="J27" s="7">
+      <c r="I27" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="J27" s="6">
+        <v>1</v>
+      </c>
+      <c r="K27" s="1">
+        <v>1</v>
+      </c>
+      <c r="L27" s="1">
+        <v>2</v>
+      </c>
+      <c r="M27" s="1">
+        <v>3</v>
+      </c>
+      <c r="N27" s="1">
         <v>4</v>
       </c>
-      <c r="K27" s="1">
-        <v>31</v>
-      </c>
-      <c r="L27" s="1">
-        <v>32</v>
-      </c>
-      <c r="M27" s="1">
-        <v>33</v>
-      </c>
-      <c r="N27" s="1">
-        <v>34</v>
-      </c>
       <c r="O27" s="1">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="P27" s="1">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="Q27" s="1">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="R27" s="1">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="S27" s="1">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="T27" s="1">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="U27" s="1">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="V27" s="1">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="W27" s="1">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="X27" s="1">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="Y27" s="1">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="Z27" s="1">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="AA27" s="1">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="AB27" s="1">
-        <v>48</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="I28" s="34"/>
+      <c r="I28" s="43"/>
       <c r="J28" s="7">
+        <v>2</v>
+      </c>
+      <c r="K28" s="1">
+        <v>11</v>
+      </c>
+      <c r="L28" s="1">
+        <v>12</v>
+      </c>
+      <c r="M28" s="1">
+        <v>13</v>
+      </c>
+      <c r="N28" s="1">
+        <v>14</v>
+      </c>
+      <c r="O28" s="1">
+        <v>15</v>
+      </c>
+      <c r="P28" s="1">
+        <v>16</v>
+      </c>
+      <c r="Q28" s="1">
+        <v>17</v>
+      </c>
+      <c r="R28" s="1">
+        <v>18</v>
+      </c>
+      <c r="S28" s="1">
+        <v>19</v>
+      </c>
+      <c r="T28" s="1">
+        <v>20</v>
+      </c>
+      <c r="U28" s="1">
+        <v>21</v>
+      </c>
+      <c r="V28" s="1">
+        <v>22</v>
+      </c>
+      <c r="W28" s="1">
+        <v>23</v>
+      </c>
+      <c r="X28" s="1">
+        <v>24</v>
+      </c>
+      <c r="Y28" s="1">
+        <v>25</v>
+      </c>
+      <c r="Z28" s="1">
+        <v>26</v>
+      </c>
+      <c r="AA28" s="1">
+        <v>27</v>
+      </c>
+      <c r="AB28" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="I29" s="43"/>
+      <c r="J29" s="7">
+        <v>3</v>
+      </c>
+      <c r="K29" s="1">
+        <v>21</v>
+      </c>
+      <c r="L29" s="1">
+        <v>22</v>
+      </c>
+      <c r="M29" s="1">
+        <v>23</v>
+      </c>
+      <c r="N29" s="1">
+        <v>24</v>
+      </c>
+      <c r="O29" s="1">
+        <v>25</v>
+      </c>
+      <c r="P29" s="1">
+        <v>26</v>
+      </c>
+      <c r="Q29" s="1">
+        <v>27</v>
+      </c>
+      <c r="R29" s="1">
+        <v>28</v>
+      </c>
+      <c r="S29" s="1">
+        <v>29</v>
+      </c>
+      <c r="T29" s="1">
+        <v>30</v>
+      </c>
+      <c r="U29" s="1">
+        <v>31</v>
+      </c>
+      <c r="V29" s="1">
+        <v>32</v>
+      </c>
+      <c r="W29" s="1">
+        <v>33</v>
+      </c>
+      <c r="X29" s="1">
+        <v>34</v>
+      </c>
+      <c r="Y29" s="1">
+        <v>35</v>
+      </c>
+      <c r="Z29" s="1">
+        <v>36</v>
+      </c>
+      <c r="AA29" s="1">
+        <v>37</v>
+      </c>
+      <c r="AB29" s="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="I30" s="43"/>
+      <c r="J30" s="7">
+        <v>4</v>
+      </c>
+      <c r="K30" s="1">
+        <v>31</v>
+      </c>
+      <c r="L30" s="1">
+        <v>32</v>
+      </c>
+      <c r="M30" s="1">
+        <v>33</v>
+      </c>
+      <c r="N30" s="1">
+        <v>34</v>
+      </c>
+      <c r="O30" s="1">
+        <v>35</v>
+      </c>
+      <c r="P30" s="1">
+        <v>36</v>
+      </c>
+      <c r="Q30" s="1">
+        <v>37</v>
+      </c>
+      <c r="R30" s="1">
+        <v>38</v>
+      </c>
+      <c r="S30" s="1">
+        <v>39</v>
+      </c>
+      <c r="T30" s="1">
+        <v>40</v>
+      </c>
+      <c r="U30" s="1">
+        <v>41</v>
+      </c>
+      <c r="V30" s="1">
+        <v>42</v>
+      </c>
+      <c r="W30" s="1">
+        <v>43</v>
+      </c>
+      <c r="X30" s="1">
+        <v>44</v>
+      </c>
+      <c r="Y30" s="1">
+        <v>45</v>
+      </c>
+      <c r="Z30" s="1">
+        <v>46</v>
+      </c>
+      <c r="AA30" s="1">
+        <v>47</v>
+      </c>
+      <c r="AB30" s="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="I31" s="43"/>
+      <c r="J31" s="7">
         <v>5</v>
       </c>
-      <c r="K28" s="1">
+      <c r="K31" s="1">
         <v>41</v>
       </c>
-      <c r="L28" s="1">
+      <c r="L31" s="1">
         <v>42</v>
       </c>
-      <c r="M28" s="1">
+      <c r="M31" s="1">
         <v>43</v>
       </c>
-      <c r="N28" s="1">
+      <c r="N31" s="1">
         <v>44</v>
       </c>
-      <c r="O28" s="1">
+      <c r="O31" s="1">
         <v>45</v>
       </c>
-      <c r="P28" s="1">
+      <c r="P31" s="1">
         <v>46</v>
       </c>
-      <c r="Q28" s="1">
+      <c r="Q31" s="1">
         <v>47</v>
       </c>
-      <c r="R28" s="1">
+      <c r="R31" s="1">
         <v>48</v>
       </c>
-      <c r="S28" s="1">
+      <c r="S31" s="1">
         <v>49</v>
       </c>
-      <c r="T28" s="1">
+      <c r="T31" s="1">
         <v>50</v>
       </c>
-      <c r="U28" s="1">
+      <c r="U31" s="1">
         <v>51</v>
       </c>
-      <c r="V28" s="1">
+      <c r="V31" s="1">
         <v>52</v>
       </c>
-      <c r="W28" s="1">
+      <c r="W31" s="1">
         <v>53</v>
       </c>
-      <c r="X28" s="1">
+      <c r="X31" s="1">
         <v>54</v>
       </c>
-      <c r="Y28" s="1">
+      <c r="Y31" s="1">
         <v>55</v>
       </c>
-      <c r="Z28" s="1">
+      <c r="Z31" s="1">
         <v>56</v>
       </c>
-      <c r="AA28" s="1">
+      <c r="AA31" s="1">
         <v>57</v>
       </c>
-      <c r="AB28" s="1">
+      <c r="AB31" s="1">
         <v>58</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="I6:I10"/>
-    <mergeCell ref="I24:I28"/>
-    <mergeCell ref="J4:X4"/>
-    <mergeCell ref="K22:AB22"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="I8:I12"/>
+    <mergeCell ref="I27:I31"/>
+    <mergeCell ref="J5:X5"/>
+    <mergeCell ref="K25:AB25"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A8:A9"/>
     <mergeCell ref="A6:A7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{105D6E0C-7A85-4994-A7E2-B2DE98E534A9}">
+  <dimension ref="A1:AC39"/>
+  <sheetViews>
+    <sheetView topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33:AC35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="56" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>5</v>
+      </c>
+      <c r="F2" s="1">
+        <v>10</v>
+      </c>
+      <c r="G2" s="1">
+        <v>50</v>
+      </c>
+      <c r="H2" s="1">
+        <v>100</v>
+      </c>
+      <c r="I2" s="1">
+        <v>500</v>
+      </c>
+      <c r="J2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="K2" s="1">
+        <v>5000</v>
+      </c>
+      <c r="L2" s="1">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="56" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="56" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="1">
+        <v>10.555479999999999</v>
+      </c>
+      <c r="E3" s="1">
+        <v>10.60605</v>
+      </c>
+      <c r="F3" s="1">
+        <v>10.65662</v>
+      </c>
+      <c r="G3" s="1">
+        <v>11.06118</v>
+      </c>
+      <c r="H3" s="1">
+        <v>11.566879999999999</v>
+      </c>
+      <c r="I3" s="1">
+        <v>15.51244</v>
+      </c>
+      <c r="J3" s="1">
+        <v>20.669350000000001</v>
+      </c>
+      <c r="K3" s="1">
+        <v>61.122880000000002</v>
+      </c>
+      <c r="L3" s="1">
+        <v>111.6854</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="56"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="1">
+        <v>10.80387</v>
+      </c>
+      <c r="E4" s="1">
+        <v>10.854699999999999</v>
+      </c>
+      <c r="F4" s="1">
+        <v>10.90554</v>
+      </c>
+      <c r="G4" s="1">
+        <v>11.31222</v>
+      </c>
+      <c r="H4" s="1">
+        <v>11.82057</v>
+      </c>
+      <c r="I4" s="1">
+        <v>15.8873</v>
+      </c>
+      <c r="J4" s="1">
+        <v>20.97052</v>
+      </c>
+      <c r="K4" s="1">
+        <v>61.628729999999997</v>
+      </c>
+      <c r="L4" s="1">
+        <v>112.43254</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="56"/>
+      <c r="B5" s="56" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="1">
+        <v>14.59257</v>
+      </c>
+      <c r="E5" s="1">
+        <v>14.64311</v>
+      </c>
+      <c r="F5" s="1">
+        <v>14.69365</v>
+      </c>
+      <c r="G5" s="1">
+        <v>15.09801</v>
+      </c>
+      <c r="H5" s="1">
+        <v>15.60346</v>
+      </c>
+      <c r="I5" s="1">
+        <v>19.647010000000002</v>
+      </c>
+      <c r="J5" s="1">
+        <v>24.70139</v>
+      </c>
+      <c r="K5" s="1">
+        <v>65.134389999999996</v>
+      </c>
+      <c r="L5" s="1">
+        <v>115.6704</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="56"/>
+      <c r="B6" s="56"/>
+      <c r="C6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="1">
+        <v>15.161440000000001</v>
+      </c>
+      <c r="E6" s="1">
+        <v>15.212260000000001</v>
+      </c>
+      <c r="F6" s="1">
+        <v>15.26308</v>
+      </c>
+      <c r="G6" s="1">
+        <v>15.66962</v>
+      </c>
+      <c r="H6" s="1">
+        <v>16.178799999999999</v>
+      </c>
+      <c r="I6" s="1">
+        <v>20.24314</v>
+      </c>
+      <c r="J6" s="1">
+        <v>25.32461</v>
+      </c>
+      <c r="K6" s="1">
+        <v>65.968720000000005</v>
+      </c>
+      <c r="L6" s="1">
+        <v>116.74451999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="56"/>
+      <c r="B7" s="56" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" s="1">
+        <v>3.6848100000000001</v>
+      </c>
+      <c r="E7" s="1">
+        <v>3.73563</v>
+      </c>
+      <c r="F7" s="1">
+        <v>3.7864399999999998</v>
+      </c>
+      <c r="G7" s="1">
+        <v>4.1929499999999997</v>
+      </c>
+      <c r="H7" s="1">
+        <v>4.7010800000000001</v>
+      </c>
+      <c r="I7" s="1">
+        <v>8.76614</v>
+      </c>
+      <c r="J7" s="1">
+        <v>13.84741</v>
+      </c>
+      <c r="K7" s="1">
+        <v>54.495379999999997</v>
+      </c>
+      <c r="L7" s="1">
+        <v>105.29956</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="56"/>
+      <c r="B8" s="56"/>
+      <c r="C8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" s="1">
+        <v>3.7560099999999998</v>
+      </c>
+      <c r="E8" s="1">
+        <v>3.8069500000000001</v>
+      </c>
+      <c r="F8" s="1">
+        <v>3.8578899999999998</v>
+      </c>
+      <c r="G8" s="1">
+        <v>4.2653699999999999</v>
+      </c>
+      <c r="H8" s="1">
+        <v>4.7747200000000003</v>
+      </c>
+      <c r="I8" s="1">
+        <v>8.8494299999999999</v>
+      </c>
+      <c r="J8" s="1">
+        <v>13.942550000000001</v>
+      </c>
+      <c r="K8" s="1">
+        <v>54.676650000000002</v>
+      </c>
+      <c r="L8" s="1">
+        <v>105.56607</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="56"/>
+      <c r="B9" s="56" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" s="1">
+        <v>20.967500000000001</v>
+      </c>
+      <c r="E9" s="1">
+        <v>21.018049999999999</v>
+      </c>
+      <c r="F9" s="1">
+        <v>21.0686</v>
+      </c>
+      <c r="G9" s="1">
+        <v>21.473030000000001</v>
+      </c>
+      <c r="H9" s="1">
+        <v>21.978570000000001</v>
+      </c>
+      <c r="I9" s="1">
+        <v>26.022829999999999</v>
+      </c>
+      <c r="J9" s="1">
+        <v>31.078099999999999</v>
+      </c>
+      <c r="K9" s="1">
+        <v>71.518230000000003</v>
+      </c>
+      <c r="L9" s="1">
+        <v>122.06323</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="56"/>
+      <c r="B10" s="56"/>
+      <c r="C10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="1">
+        <v>22.157440000000001</v>
+      </c>
+      <c r="E10" s="1">
+        <v>22.208269999999999</v>
+      </c>
+      <c r="F10" s="1">
+        <v>22.2591</v>
+      </c>
+      <c r="G10" s="1">
+        <v>22.665700000000001</v>
+      </c>
+      <c r="H10" s="1">
+        <v>23.173950000000001</v>
+      </c>
+      <c r="I10" s="1">
+        <v>27.239879999999999</v>
+      </c>
+      <c r="J10" s="1">
+        <v>32.322090000000003</v>
+      </c>
+      <c r="K10" s="1">
+        <v>72.972130000000007</v>
+      </c>
+      <c r="L10" s="1">
+        <v>123.76537</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="56"/>
+      <c r="B11" s="56" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" s="1">
+        <v>4.2947899999999999</v>
+      </c>
+      <c r="E11" s="1">
+        <v>4.34558</v>
+      </c>
+      <c r="F11" s="1">
+        <v>4.3963599999999996</v>
+      </c>
+      <c r="G11" s="1">
+        <v>4.8026299999999997</v>
+      </c>
+      <c r="H11" s="1">
+        <v>5.3104699999999996</v>
+      </c>
+      <c r="I11" s="1">
+        <v>9.37317</v>
+      </c>
+      <c r="J11" s="1">
+        <v>14.45147</v>
+      </c>
+      <c r="K11" s="1">
+        <v>55.074779999999997</v>
+      </c>
+      <c r="L11" s="1">
+        <v>105.84578</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" s="56"/>
+      <c r="B12" s="56"/>
+      <c r="C12" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="1">
+        <v>4.3904899999999998</v>
+      </c>
+      <c r="E12" s="1">
+        <v>4.4413900000000002</v>
+      </c>
+      <c r="F12" s="1">
+        <v>4.4922899999999997</v>
+      </c>
+      <c r="G12" s="1">
+        <v>4.8994600000000004</v>
+      </c>
+      <c r="H12" s="1">
+        <v>5.4084199999999996</v>
+      </c>
+      <c r="I12" s="1">
+        <v>9.4800299999999993</v>
+      </c>
+      <c r="J12" s="1">
+        <v>14.569229999999999</v>
+      </c>
+      <c r="K12" s="1">
+        <v>55.270850000000003</v>
+      </c>
+      <c r="L12" s="1">
+        <v>106.11671</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" s="56"/>
+      <c r="B13" s="56" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" s="1">
+        <v>2.50061</v>
+      </c>
+      <c r="E13" s="1">
+        <v>2.5515300000000001</v>
+      </c>
+      <c r="F13" s="1">
+        <v>2.6024500000000002</v>
+      </c>
+      <c r="G13" s="1">
+        <v>3.0098400000000001</v>
+      </c>
+      <c r="H13" s="1">
+        <v>3.5190700000000001</v>
+      </c>
+      <c r="I13" s="1">
+        <v>7.5928800000000001</v>
+      </c>
+      <c r="J13" s="1">
+        <v>12.68512</v>
+      </c>
+      <c r="K13" s="1">
+        <v>53.421799999999998</v>
+      </c>
+      <c r="L13" s="1">
+        <v>104.33942</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" s="56"/>
+      <c r="B14" s="56"/>
+      <c r="C14" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" s="1">
+        <v>2.5562499999999999</v>
+      </c>
+      <c r="E14" s="1">
+        <v>2.6072799999999998</v>
+      </c>
+      <c r="F14" s="1">
+        <v>2.6583100000000002</v>
+      </c>
+      <c r="G14" s="1">
+        <v>3.0665800000000001</v>
+      </c>
+      <c r="H14" s="1">
+        <v>3.5769099999999998</v>
+      </c>
+      <c r="I14" s="1">
+        <v>7.6594600000000002</v>
+      </c>
+      <c r="J14" s="1">
+        <v>12.76243</v>
+      </c>
+      <c r="K14" s="1">
+        <v>53.57694</v>
+      </c>
+      <c r="L14" s="1">
+        <v>104.57151</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D16" s="56" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" s="56"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="35"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="D17" s="36">
+        <v>0</v>
+      </c>
+      <c r="E17" s="36">
+        <v>5</v>
+      </c>
+      <c r="F17" s="36">
+        <v>10</v>
+      </c>
+      <c r="G17" s="36">
+        <v>50</v>
+      </c>
+      <c r="H17" s="36">
+        <v>100</v>
+      </c>
+      <c r="I17" s="36">
+        <v>500</v>
+      </c>
+      <c r="J17" s="36">
+        <v>1000</v>
+      </c>
+      <c r="K17" s="36">
+        <v>5000</v>
+      </c>
+      <c r="L17" s="36"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A18" s="56" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" s="56" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" s="36">
+        <v>10.555479999999999</v>
+      </c>
+      <c r="E18" s="36">
+        <v>11.55392</v>
+      </c>
+      <c r="F18" s="36">
+        <v>12.552350000000001</v>
+      </c>
+      <c r="G18" s="36">
+        <v>20.53961</v>
+      </c>
+      <c r="H18" s="36">
+        <v>30.523289999999999</v>
+      </c>
+      <c r="I18" s="36">
+        <v>110.38182999999999</v>
+      </c>
+      <c r="J18" s="36">
+        <v>210.18388999999999</v>
+      </c>
+      <c r="K18" s="36">
+        <v>1007.82936</v>
+      </c>
+      <c r="L18" s="36"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A19" s="56"/>
+      <c r="B19" s="56"/>
+      <c r="C19" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" s="36">
+        <v>10.80387</v>
+      </c>
+      <c r="E19" s="36">
+        <v>11.807449999999999</v>
+      </c>
+      <c r="F19" s="36">
+        <v>12.81101</v>
+      </c>
+      <c r="G19" s="36">
+        <v>20.839210000000001</v>
+      </c>
+      <c r="H19" s="36">
+        <v>30.8736</v>
+      </c>
+      <c r="I19" s="36">
+        <v>111.11724</v>
+      </c>
+      <c r="J19" s="36">
+        <v>211.34614999999999</v>
+      </c>
+      <c r="K19" s="36">
+        <v>1010.19158</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A20" s="56"/>
+      <c r="B20" s="56" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D20" s="36">
+        <v>14.59257</v>
+      </c>
+      <c r="E20" s="36">
+        <v>15.6525</v>
+      </c>
+      <c r="F20" s="36">
+        <v>16.711269999999999</v>
+      </c>
+      <c r="G20" s="36">
+        <v>25.14507</v>
+      </c>
+      <c r="H20" s="36">
+        <v>35.616309999999999</v>
+      </c>
+      <c r="I20" s="36">
+        <v>118.12202000000001</v>
+      </c>
+      <c r="J20" s="36">
+        <v>220.13594000000001</v>
+      </c>
+      <c r="K20" s="36">
+        <v>1029.9249299999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A21" s="56"/>
+      <c r="B21" s="56"/>
+      <c r="C21" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" s="36">
+        <v>15.161440000000001</v>
+      </c>
+      <c r="E21" s="36">
+        <v>16.232030000000002</v>
+      </c>
+      <c r="F21" s="36">
+        <v>17.301390000000001</v>
+      </c>
+      <c r="G21" s="36">
+        <v>25.817609999999998</v>
+      </c>
+      <c r="H21" s="36">
+        <v>36.386580000000002</v>
+      </c>
+      <c r="I21" s="36">
+        <v>119.5287</v>
+      </c>
+      <c r="J21" s="36">
+        <v>222.12979999999999</v>
+      </c>
+      <c r="K21" s="36">
+        <v>1033.3093799999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A22" s="56"/>
+      <c r="B22" s="56" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22" s="36">
+        <v>3.6848100000000001</v>
+      </c>
+      <c r="E22" s="36">
+        <v>4.3335699999999999</v>
+      </c>
+      <c r="F22" s="36">
+        <v>4.9794999999999998</v>
+      </c>
+      <c r="G22" s="36">
+        <v>10.08968</v>
+      </c>
+      <c r="H22" s="36">
+        <v>16.416340000000002</v>
+      </c>
+      <c r="I22" s="36">
+        <v>66.689490000000006</v>
+      </c>
+      <c r="J22" s="36">
+        <v>129.42372</v>
+      </c>
+      <c r="K22" s="36">
+        <v>630.93206999999995</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A23" s="56"/>
+      <c r="B23" s="56"/>
+      <c r="C23" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D23" s="36">
+        <v>3.7560099999999998</v>
+      </c>
+      <c r="E23" s="36">
+        <v>4.4086999999999996</v>
+      </c>
+      <c r="F23" s="36">
+        <v>5.0583299999999998</v>
+      </c>
+      <c r="G23" s="36">
+        <v>10.192909999999999</v>
+      </c>
+      <c r="H23" s="36">
+        <v>16.544049999999999</v>
+      </c>
+      <c r="I23" s="36">
+        <v>66.969989999999996</v>
+      </c>
+      <c r="J23" s="36">
+        <v>129.86216999999999</v>
+      </c>
+      <c r="K23" s="36">
+        <v>631.67444999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A24" s="56"/>
+      <c r="B24" s="56" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D24" s="36">
+        <v>20.967500000000001</v>
+      </c>
+      <c r="E24" s="36">
+        <v>22.065919999999998</v>
+      </c>
+      <c r="F24" s="36">
+        <v>23.162960000000002</v>
+      </c>
+      <c r="G24" s="36">
+        <v>31.89452</v>
+      </c>
+      <c r="H24" s="36">
+        <v>42.716070000000002</v>
+      </c>
+      <c r="I24" s="36">
+        <v>127.41369</v>
+      </c>
+      <c r="J24" s="36">
+        <v>231.47537</v>
+      </c>
+      <c r="K24" s="36">
+        <v>1053.55231</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A25" s="56"/>
+      <c r="B25" s="56"/>
+      <c r="C25" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D25" s="36">
+        <v>22.157440000000001</v>
+      </c>
+      <c r="E25" s="36">
+        <v>23.270879999999998</v>
+      </c>
+      <c r="F25" s="36">
+        <v>24.382829999999998</v>
+      </c>
+      <c r="G25">
+        <v>33.229680000000002</v>
+      </c>
+      <c r="H25" s="36">
+        <v>44.186309999999999</v>
+      </c>
+      <c r="I25" s="36">
+        <v>129.71713</v>
+      </c>
+      <c r="J25" s="36">
+        <v>234.4846</v>
+      </c>
+      <c r="K25" s="36">
+        <v>1058.0405699999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A26" s="56"/>
+      <c r="B26" s="56" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D26" s="36">
+        <v>4.2947899999999999</v>
+      </c>
+      <c r="E26" s="36">
+        <v>4.9823399999999998</v>
+      </c>
+      <c r="F26" s="36">
+        <v>5.6643699999999999</v>
+      </c>
+      <c r="G26" s="36">
+        <v>10.99863</v>
+      </c>
+      <c r="H26" s="36">
+        <v>17.519860000000001</v>
+      </c>
+      <c r="I26" s="36">
+        <v>68.600099999999998</v>
+      </c>
+      <c r="J26" s="36">
+        <v>131.92504</v>
+      </c>
+      <c r="K26" s="36">
+        <v>636.47968000000003</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A27" s="56"/>
+      <c r="B27" s="56"/>
+      <c r="C27" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D27" s="36">
+        <v>4.3904899999999998</v>
+      </c>
+      <c r="E27">
+        <v>5.0848000000000004</v>
+      </c>
+      <c r="F27">
+        <v>5.7732599999999996</v>
+      </c>
+      <c r="G27" s="36">
+        <v>11.150690000000001</v>
+      </c>
+      <c r="H27" s="36">
+        <v>17.71443</v>
+      </c>
+      <c r="I27" s="36">
+        <v>69.02561</v>
+      </c>
+      <c r="J27" s="36">
+        <v>132.55512999999999</v>
+      </c>
+      <c r="K27" s="36">
+        <v>637.49418000000003</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A28" s="56"/>
+      <c r="B28" s="56" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D28" s="36">
+        <v>2.50061</v>
+      </c>
+      <c r="E28" s="36">
+        <v>3.0094799999999999</v>
+      </c>
+      <c r="F28" s="36">
+        <v>3.5175399999999999</v>
+      </c>
+      <c r="G28" s="36">
+        <v>7.5655700000000001</v>
+      </c>
+      <c r="H28" s="36">
+        <v>12.60801</v>
+      </c>
+      <c r="I28" s="36">
+        <v>52.848660000000002</v>
+      </c>
+      <c r="J28" s="36">
+        <v>103.11723000000001</v>
+      </c>
+      <c r="K28" s="36">
+        <v>505.11730999999997</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A29" s="56"/>
+      <c r="B29" s="56"/>
+      <c r="C29" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D29" s="36">
+        <v>2.5562499999999999</v>
+      </c>
+      <c r="E29" s="36">
+        <v>3.06738</v>
+      </c>
+      <c r="F29" s="36">
+        <v>3.5775899999999998</v>
+      </c>
+      <c r="G29" s="36">
+        <v>7.64018</v>
+      </c>
+      <c r="H29" s="36">
+        <v>12.69786</v>
+      </c>
+      <c r="I29" s="36">
+        <v>53.038139999999999</v>
+      </c>
+      <c r="J29" s="36">
+        <v>103.41088000000001</v>
+      </c>
+      <c r="K29" s="36">
+        <v>505.61380000000003</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="D32" s="55" t="s">
+        <v>68</v>
+      </c>
+      <c r="E32" s="55"/>
+      <c r="F32" s="55"/>
+      <c r="G32" s="55"/>
+      <c r="H32" s="55"/>
+      <c r="I32" s="55"/>
+      <c r="J32" s="55"/>
+      <c r="K32" s="55"/>
+      <c r="L32" s="35"/>
+      <c r="M32" s="35"/>
+    </row>
+    <row r="33" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="D33">
+        <v>0.5</v>
+      </c>
+      <c r="E33">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F33">
+        <v>0.6</v>
+      </c>
+      <c r="G33">
+        <v>0.65</v>
+      </c>
+      <c r="H33">
+        <v>0.7</v>
+      </c>
+      <c r="I33">
+        <v>0.75</v>
+      </c>
+      <c r="J33">
+        <v>0.8</v>
+      </c>
+      <c r="K33">
+        <v>0.85</v>
+      </c>
+      <c r="L33">
+        <v>0.9</v>
+      </c>
+      <c r="M33">
+        <v>0.95</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="P33">
+        <v>1.2</v>
+      </c>
+      <c r="Q33">
+        <v>1.25</v>
+      </c>
+      <c r="R33">
+        <v>1.3</v>
+      </c>
+      <c r="S33">
+        <v>1.4</v>
+      </c>
+      <c r="T33">
+        <v>1.5</v>
+      </c>
+      <c r="U33">
+        <v>1.6</v>
+      </c>
+      <c r="V33">
+        <v>1.75</v>
+      </c>
+      <c r="W33">
+        <v>1.8</v>
+      </c>
+      <c r="X33">
+        <v>1.9</v>
+      </c>
+      <c r="Y33">
+        <v>2</v>
+      </c>
+      <c r="Z33">
+        <v>2.5</v>
+      </c>
+      <c r="AA33">
+        <v>3</v>
+      </c>
+      <c r="AB33">
+        <v>3.5</v>
+      </c>
+      <c r="AC33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="B34" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="C34" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="D34">
+        <v>16.426749999999998</v>
+      </c>
+      <c r="E34">
+        <v>13.546519999999999</v>
+      </c>
+      <c r="F34">
+        <v>12.6168</v>
+      </c>
+      <c r="G34">
+        <v>11.92375</v>
+      </c>
+      <c r="H34">
+        <v>11.41229</v>
+      </c>
+      <c r="I34">
+        <v>11.04318</v>
+      </c>
+      <c r="J34">
+        <v>10.787940000000001</v>
+      </c>
+      <c r="K34">
+        <v>10.625540000000001</v>
+      </c>
+      <c r="L34">
+        <v>10.5402</v>
+      </c>
+      <c r="M34">
+        <v>10.51993</v>
+      </c>
+      <c r="N34">
+        <v>10.555479999999999</v>
+      </c>
+      <c r="Y34">
+        <v>17.661709999999999</v>
+      </c>
+      <c r="Z34">
+        <v>24.161380000000001</v>
+      </c>
+      <c r="AA34">
+        <v>32.273949999999999</v>
+      </c>
+      <c r="AB34">
+        <v>41.743450000000003</v>
+      </c>
+      <c r="AC34">
+        <v>53.145269999999996</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="B35" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="C35" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="D35">
+        <v>16.919</v>
+      </c>
+      <c r="E35">
+        <v>13.969390000000001</v>
+      </c>
+      <c r="F35">
+        <v>12.998749999999999</v>
+      </c>
+      <c r="G35">
+        <v>12.27378</v>
+      </c>
+      <c r="H35">
+        <v>11.73709</v>
+      </c>
+      <c r="I35">
+        <v>11.347799999999999</v>
+      </c>
+      <c r="J35">
+        <v>11.076280000000001</v>
+      </c>
+      <c r="K35">
+        <v>10.90066</v>
+      </c>
+      <c r="L35">
+        <v>10.804550000000001</v>
+      </c>
+      <c r="M35">
+        <v>10.77549</v>
+      </c>
+      <c r="N35">
+        <v>10.80387</v>
+      </c>
+      <c r="O35">
+        <v>10.882580000000001</v>
+      </c>
+      <c r="P35">
+        <v>11.1198</v>
+      </c>
+      <c r="Q35">
+        <v>11.286429999999999</v>
+      </c>
+      <c r="R35">
+        <v>11.480589999999999</v>
+      </c>
+      <c r="S35">
+        <v>11.94131</v>
+      </c>
+      <c r="T35">
+        <v>12.485609999999999</v>
+      </c>
+      <c r="U35">
+        <v>13.099909999999999</v>
+      </c>
+      <c r="V35">
+        <v>14.134510000000001</v>
+      </c>
+      <c r="W35">
+        <v>14.50572</v>
+      </c>
+      <c r="X35">
+        <v>15.283899999999999</v>
+      </c>
+      <c r="Y35">
+        <v>17.90964</v>
+      </c>
+      <c r="Z35">
+        <v>24.455100000000002</v>
+      </c>
+      <c r="AA35">
+        <v>32.63288</v>
+      </c>
+      <c r="AB35">
+        <v>42.384970000000003</v>
+      </c>
+      <c r="AC35">
+        <v>53.685630000000003</v>
+      </c>
+    </row>
+    <row r="36" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="B36" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="C36" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="D36">
+        <v>25.511299999999999</v>
+      </c>
+      <c r="E36">
+        <v>21.08081</v>
+      </c>
+      <c r="F36">
+        <v>19.124559999999999</v>
+      </c>
+      <c r="G36">
+        <v>17.628810000000001</v>
+      </c>
+      <c r="H36">
+        <v>16.477920000000001</v>
+      </c>
+      <c r="I36">
+        <v>15.59125</v>
+      </c>
+      <c r="J36">
+        <v>14.911250000000001</v>
+      </c>
+      <c r="K36">
+        <v>14.396000000000001</v>
+      </c>
+      <c r="L36">
+        <v>14.014390000000001</v>
+      </c>
+      <c r="M36">
+        <v>13.74295</v>
+      </c>
+      <c r="N36">
+        <v>13.563739999999999</v>
+      </c>
+      <c r="Y36">
+        <v>19.17069</v>
+      </c>
+      <c r="Z36">
+        <v>25.489419999999999</v>
+      </c>
+      <c r="AA36">
+        <v>33.503619999999998</v>
+      </c>
+      <c r="AB36">
+        <v>43.113770000000002</v>
+      </c>
+      <c r="AC36">
+        <v>54.277059999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="B37" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="C37" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="D37">
+        <v>26.03314</v>
+      </c>
+      <c r="E37">
+        <v>21.582159999999998</v>
+      </c>
+      <c r="F37">
+        <v>19.56681</v>
+      </c>
+      <c r="G37">
+        <v>18.026489999999999</v>
+      </c>
+      <c r="H37">
+        <v>16.841280000000001</v>
+      </c>
+      <c r="I37">
+        <v>15.92774</v>
+      </c>
+      <c r="J37">
+        <v>15.226419999999999</v>
+      </c>
+      <c r="K37">
+        <v>14.694089999999999</v>
+      </c>
+      <c r="L37">
+        <v>14.29867</v>
+      </c>
+      <c r="M37">
+        <v>14.016030000000001</v>
+      </c>
+      <c r="N37">
+        <v>13.8277</v>
+      </c>
+      <c r="Q37">
+        <v>13.577909999999999</v>
+      </c>
+      <c r="T37">
+        <v>14.377179999999999</v>
+      </c>
+      <c r="V37">
+        <v>15.78768</v>
+      </c>
+      <c r="Y37">
+        <v>19.423680000000001</v>
+      </c>
+      <c r="Z37">
+        <v>25.787310000000002</v>
+      </c>
+      <c r="AA37">
+        <v>33.86627</v>
+      </c>
+      <c r="AB37">
+        <v>43.558750000000003</v>
+      </c>
+      <c r="AC37">
+        <v>54.820709999999998</v>
+      </c>
+    </row>
+    <row r="38" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="B38" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="C38" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="D38">
+        <v>107.27016</v>
+      </c>
+      <c r="E38">
+        <v>88.85857</v>
+      </c>
+      <c r="F38">
+        <v>77.67653</v>
+      </c>
+      <c r="G38">
+        <v>68.963319999999996</v>
+      </c>
+      <c r="H38">
+        <v>62.061349999999997</v>
+      </c>
+      <c r="I38">
+        <v>56.518909999999998</v>
+      </c>
+      <c r="J38">
+        <v>52.017530000000001</v>
+      </c>
+      <c r="K38">
+        <v>48.327550000000002</v>
+      </c>
+      <c r="L38">
+        <v>45.28004</v>
+      </c>
+      <c r="M38">
+        <v>42.748519999999999</v>
+      </c>
+      <c r="N38">
+        <v>40.636780000000002</v>
+      </c>
+      <c r="Y38">
+        <v>32.75123</v>
+      </c>
+      <c r="Z38">
+        <v>37.441670000000002</v>
+      </c>
+      <c r="AA38">
+        <v>44.570540000000001</v>
+      </c>
+      <c r="AB38">
+        <v>53.646599999999999</v>
+      </c>
+      <c r="AC38">
+        <v>64.463130000000007</v>
+      </c>
+    </row>
+    <row r="39" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="B39" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="C39" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="D39">
+        <v>108.05265</v>
+      </c>
+      <c r="E39">
+        <v>90.017489999999995</v>
+      </c>
+      <c r="F39">
+        <v>78.630579999999995</v>
+      </c>
+      <c r="G39">
+        <v>69.769400000000005</v>
+      </c>
+      <c r="H39">
+        <v>62.757860000000001</v>
+      </c>
+      <c r="I39">
+        <v>57.1325</v>
+      </c>
+      <c r="J39">
+        <v>52.56718</v>
+      </c>
+      <c r="K39">
+        <v>48.827109999999998</v>
+      </c>
+      <c r="L39">
+        <v>45.739809999999999</v>
+      </c>
+      <c r="M39">
+        <v>43.176299999999998</v>
+      </c>
+      <c r="N39">
+        <v>41.038620000000002</v>
+      </c>
+      <c r="Q39">
+        <v>34.197920000000003</v>
+      </c>
+      <c r="T39">
+        <v>31.407920000000001</v>
+      </c>
+      <c r="V39">
+        <v>30.64254</v>
+      </c>
+      <c r="Y39">
+        <v>33.049759999999999</v>
+      </c>
+      <c r="Z39">
+        <v>37.777079999999998</v>
+      </c>
+      <c r="AA39">
+        <v>44.966650000000001</v>
+      </c>
+      <c r="AB39">
+        <v>54.122700000000002</v>
+      </c>
+      <c r="AC39">
+        <v>65.036420000000007</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="17">
+    <mergeCell ref="D16:K16"/>
+    <mergeCell ref="D1:L1"/>
+    <mergeCell ref="A3:A14"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="D32:K32"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="A18:A29"/>
+    <mergeCell ref="B22:B23"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>